--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -2223,7 +2223,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2234,13 +2234,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2292,13 +2298,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -4210,7 +4216,7 @@
       </c>
       <c r="C176" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
       <c r="A177" s="3" t="s">
         <v>179</v>
       </c>
@@ -4219,7 +4225,7 @@
       </c>
       <c r="C177" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
       <c r="A178" s="3" t="s">
         <v>180</v>
       </c>
@@ -4228,7 +4234,7 @@
       </c>
       <c r="C178" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
       <c r="A179" s="3" t="s">
         <v>181</v>
       </c>
@@ -4237,7 +4243,7 @@
       </c>
       <c r="C179" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
       <c r="A180" s="3" t="s">
         <v>182</v>
       </c>
@@ -4246,7 +4252,7 @@
       </c>
       <c r="C180" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
       <c r="A181" s="3" t="s">
         <v>183</v>
       </c>
@@ -4255,7 +4261,7 @@
       </c>
       <c r="C181" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
       <c r="A182" s="3" t="s">
         <v>184</v>
       </c>
@@ -4264,7 +4270,7 @@
       </c>
       <c r="C182" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
       <c r="A183" s="3" t="s">
         <v>3</v>
       </c>
@@ -4273,7 +4279,7 @@
       </c>
       <c r="C183" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
       <c r="A184" s="3" t="s">
         <v>185</v>
       </c>
@@ -4282,7 +4288,7 @@
       </c>
       <c r="C184" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
       <c r="A185" s="3" t="s">
         <v>186</v>
       </c>
@@ -4291,7 +4297,7 @@
       </c>
       <c r="C185" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
       <c r="A186" s="3" t="s">
         <v>187</v>
       </c>
@@ -4300,7 +4306,7 @@
       </c>
       <c r="C186" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
       <c r="A187" s="3" t="s">
         <v>188</v>
       </c>
@@ -4309,7 +4315,7 @@
       </c>
       <c r="C187" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
       <c r="A188" s="3" t="s">
         <v>189</v>
       </c>
@@ -4318,7 +4324,7 @@
       </c>
       <c r="C188" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
       <c r="A189" s="3" t="s">
         <v>190</v>
       </c>
@@ -4327,7 +4333,7 @@
       </c>
       <c r="C189" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
       <c r="A190" s="3" t="s">
         <v>191</v>
       </c>
@@ -4336,7 +4342,7 @@
       </c>
       <c r="C190" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
       <c r="A191" s="3" t="s">
         <v>192</v>
       </c>
@@ -4345,7 +4351,7 @@
       </c>
       <c r="C191" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
       <c r="A192" s="3" t="s">
         <v>193</v>
       </c>
@@ -4354,7 +4360,7 @@
       </c>
       <c r="C192" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
       <c r="A193" s="3" t="s">
         <v>194</v>
       </c>
@@ -4363,7 +4369,7 @@
       </c>
       <c r="C193" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
       <c r="A194" s="3" t="s">
         <v>195</v>
       </c>
@@ -4372,7 +4378,7 @@
       </c>
       <c r="C194" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
       <c r="A195" s="3" t="s">
         <v>196</v>
       </c>
@@ -4381,7 +4387,7 @@
       </c>
       <c r="C195" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
       <c r="A196" s="3" t="s">
         <v>197</v>
       </c>
@@ -4390,7 +4396,7 @@
       </c>
       <c r="C196" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
       <c r="A197" s="3" t="s">
         <v>198</v>
       </c>
@@ -4399,7 +4405,7 @@
       </c>
       <c r="C197" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
       <c r="A198" s="3" t="s">
         <v>199</v>
       </c>
@@ -4408,7 +4414,7 @@
       </c>
       <c r="C198" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
       <c r="A199" s="3" t="s">
         <v>200</v>
       </c>
@@ -4417,7 +4423,7 @@
       </c>
       <c r="C199" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
       <c r="A200" s="3" t="s">
         <v>201</v>
       </c>
@@ -4426,7 +4432,7 @@
       </c>
       <c r="C200" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
       <c r="A201" s="3" t="s">
         <v>202</v>
       </c>
@@ -8778,7 +8784,7 @@
         <v>675</v>
       </c>
       <c r="B684" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C684" s="3"/>
     </row>
@@ -8796,7 +8802,7 @@
         <v>677</v>
       </c>
       <c r="B686" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" s="3"/>
     </row>
@@ -8805,7 +8811,7 @@
         <v>678</v>
       </c>
       <c r="B687" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C687" s="3"/>
     </row>
@@ -8814,7 +8820,7 @@
         <v>679</v>
       </c>
       <c r="B688" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C688" s="3"/>
     </row>
@@ -8823,7 +8829,7 @@
         <v>680</v>
       </c>
       <c r="B689" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C689" s="3"/>
     </row>
@@ -8832,7 +8838,7 @@
         <v>681</v>
       </c>
       <c r="B690" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" s="3"/>
     </row>
@@ -8841,7 +8847,7 @@
         <v>682</v>
       </c>
       <c r="B691" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C691" s="3"/>
     </row>
@@ -8850,7 +8856,7 @@
         <v>683</v>
       </c>
       <c r="B692" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C692" s="3"/>
     </row>
@@ -8859,7 +8865,7 @@
         <v>684</v>
       </c>
       <c r="B693" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C693" s="3"/>
     </row>
@@ -8868,7 +8874,7 @@
         <v>685</v>
       </c>
       <c r="B694" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C694" s="3"/>
     </row>
@@ -8886,7 +8892,7 @@
         <v>687</v>
       </c>
       <c r="B696" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C696" s="3"/>
     </row>
@@ -8895,7 +8901,7 @@
         <v>688</v>
       </c>
       <c r="B697" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C697" s="3"/>
     </row>
@@ -8904,7 +8910,7 @@
         <v>689</v>
       </c>
       <c r="B698" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C698" s="3"/>
     </row>
@@ -8913,7 +8919,7 @@
         <v>690</v>
       </c>
       <c r="B699" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C699" s="3"/>
     </row>
@@ -8922,7 +8928,7 @@
         <v>691</v>
       </c>
       <c r="B700" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C700" s="3"/>
     </row>
@@ -8931,7 +8937,7 @@
         <v>167</v>
       </c>
       <c r="B701" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C701" s="3"/>
     </row>
@@ -8940,7 +8946,7 @@
         <v>692</v>
       </c>
       <c r="B702" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C702" s="3"/>
     </row>
@@ -8949,7 +8955,7 @@
         <v>693</v>
       </c>
       <c r="B703" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C703" s="3"/>
     </row>
@@ -8958,7 +8964,7 @@
         <v>694</v>
       </c>
       <c r="B704" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" s="3"/>
     </row>
@@ -8967,7 +8973,7 @@
         <v>695</v>
       </c>
       <c r="B705" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C705" s="3"/>
     </row>
@@ -8976,7 +8982,7 @@
         <v>696</v>
       </c>
       <c r="B706" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C706" s="3"/>
     </row>
@@ -8985,7 +8991,7 @@
         <v>697</v>
       </c>
       <c r="B707" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" s="3"/>
     </row>
@@ -9012,7 +9018,7 @@
         <v>700</v>
       </c>
       <c r="B710" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C710" s="3"/>
     </row>
@@ -9021,7 +9027,7 @@
         <v>562</v>
       </c>
       <c r="B711" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C711" s="3"/>
     </row>
@@ -9030,7 +9036,7 @@
         <v>701</v>
       </c>
       <c r="B712" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C712" s="3"/>
     </row>
@@ -9039,7 +9045,7 @@
         <v>702</v>
       </c>
       <c r="B713" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" s="3"/>
     </row>
@@ -9048,7 +9054,7 @@
         <v>703</v>
       </c>
       <c r="B714" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C714" s="3"/>
     </row>
@@ -9057,7 +9063,7 @@
         <v>704</v>
       </c>
       <c r="B715" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" s="3"/>
     </row>
@@ -9066,7 +9072,7 @@
         <v>705</v>
       </c>
       <c r="B716" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C716" s="3"/>
     </row>
@@ -9075,7 +9081,7 @@
         <v>706</v>
       </c>
       <c r="B717" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C717" s="3"/>
     </row>
@@ -9084,7 +9090,7 @@
         <v>707</v>
       </c>
       <c r="B718" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C718" s="3"/>
     </row>
@@ -9093,7 +9099,7 @@
         <v>708</v>
       </c>
       <c r="B719" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C719" s="3"/>
     </row>
@@ -9102,7 +9108,7 @@
         <v>709</v>
       </c>
       <c r="B720" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C720" s="3"/>
     </row>
@@ -9111,7 +9117,7 @@
         <v>710</v>
       </c>
       <c r="B721" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C721" s="3"/>
     </row>
@@ -9120,7 +9126,7 @@
         <v>711</v>
       </c>
       <c r="B722" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C722" s="3"/>
     </row>
@@ -9138,7 +9144,7 @@
         <v>713</v>
       </c>
       <c r="B724" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C724" s="3"/>
     </row>
@@ -9147,7 +9153,7 @@
         <v>714</v>
       </c>
       <c r="B725" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C725" s="3"/>
     </row>
@@ -9156,7 +9162,7 @@
         <v>438</v>
       </c>
       <c r="B726" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C726" s="3"/>
     </row>
@@ -9165,7 +9171,7 @@
         <v>715</v>
       </c>
       <c r="B727" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C727" s="3"/>
     </row>
@@ -9174,7 +9180,7 @@
         <v>716</v>
       </c>
       <c r="B728" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C728" s="3"/>
     </row>
@@ -9183,7 +9189,7 @@
         <v>717</v>
       </c>
       <c r="B729" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C729" s="3"/>
     </row>
@@ -9192,7 +9198,7 @@
         <v>718</v>
       </c>
       <c r="B730" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C730" s="3"/>
     </row>
@@ -9201,7 +9207,7 @@
         <v>719</v>
       </c>
       <c r="B731" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C731" s="3"/>
     </row>
@@ -9210,7 +9216,7 @@
         <v>720</v>
       </c>
       <c r="B732" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C732" s="3"/>
     </row>
@@ -9219,7 +9225,7 @@
         <v>721</v>
       </c>
       <c r="B733" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C733" s="3"/>
     </row>
@@ -9228,7 +9234,7 @@
         <v>722</v>
       </c>
       <c r="B734" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C734" s="3"/>
     </row>
@@ -9237,7 +9243,7 @@
         <v>723</v>
       </c>
       <c r="B735" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C735" s="3"/>
     </row>
@@ -9246,7 +9252,7 @@
         <v>724</v>
       </c>
       <c r="B736" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C736" s="3"/>
     </row>
@@ -9255,7 +9261,7 @@
         <v>725</v>
       </c>
       <c r="B737" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C737" s="3"/>
     </row>
@@ -9264,7 +9270,7 @@
         <v>726</v>
       </c>
       <c r="B738" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C738" s="3"/>
     </row>
@@ -9273,7 +9279,7 @@
         <v>300</v>
       </c>
       <c r="B739" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C739" s="3"/>
     </row>
@@ -9282,7 +9288,7 @@
         <v>727</v>
       </c>
       <c r="B740" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C740" s="3"/>
     </row>
@@ -9291,7 +9297,7 @@
         <v>728</v>
       </c>
       <c r="B741" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C741" s="3"/>
     </row>
@@ -9300,7 +9306,7 @@
         <v>729</v>
       </c>
       <c r="B742" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C742" s="3"/>
     </row>
@@ -9309,7 +9315,7 @@
         <v>730</v>
       </c>
       <c r="B743" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C743" s="3"/>
     </row>
@@ -9318,7 +9324,7 @@
         <v>731</v>
       </c>
       <c r="B744" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C744" s="3"/>
     </row>
@@ -9327,7 +9333,7 @@
         <v>732</v>
       </c>
       <c r="B745" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C745" s="3"/>
     </row>
@@ -9336,7 +9342,7 @@
         <v>733</v>
       </c>
       <c r="B746" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C746" s="3"/>
     </row>

--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -8586,7 +8586,7 @@
         <v>653</v>
       </c>
       <c r="B662" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C662" s="3"/>
     </row>
@@ -8604,7 +8604,7 @@
         <v>655</v>
       </c>
       <c r="B664" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C664" s="3"/>
     </row>
@@ -8622,7 +8622,7 @@
         <v>657</v>
       </c>
       <c r="B666" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C666" s="3"/>
     </row>
@@ -8667,7 +8667,7 @@
         <v>662</v>
       </c>
       <c r="B671" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C671" s="3"/>
     </row>
@@ -8676,7 +8676,7 @@
         <v>663</v>
       </c>
       <c r="B672" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C672" s="3"/>
     </row>
@@ -8694,7 +8694,7 @@
         <v>665</v>
       </c>
       <c r="B674" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C674" s="3"/>
     </row>
@@ -8703,7 +8703,7 @@
         <v>666</v>
       </c>
       <c r="B675" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C675" s="3"/>
     </row>
@@ -8712,7 +8712,7 @@
         <v>667</v>
       </c>
       <c r="B676" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" s="3"/>
     </row>
@@ -8721,7 +8721,7 @@
         <v>668</v>
       </c>
       <c r="B677" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C677" s="3"/>
     </row>
@@ -8730,7 +8730,7 @@
         <v>669</v>
       </c>
       <c r="B678" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" s="3"/>
     </row>
@@ -8739,7 +8739,7 @@
         <v>670</v>
       </c>
       <c r="B679" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C679" s="3"/>
     </row>
@@ -8748,7 +8748,7 @@
         <v>671</v>
       </c>
       <c r="B680" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C680" s="3"/>
     </row>
@@ -8766,7 +8766,7 @@
         <v>673</v>
       </c>
       <c r="B682" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C682" s="3"/>
     </row>
@@ -8775,7 +8775,7 @@
         <v>674</v>
       </c>
       <c r="B683" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C683" s="3"/>
     </row>
@@ -8784,7 +8784,7 @@
         <v>675</v>
       </c>
       <c r="B684" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C684" s="3"/>
     </row>
@@ -8793,7 +8793,7 @@
         <v>676</v>
       </c>
       <c r="B685" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C685" s="3"/>
     </row>
@@ -8802,7 +8802,7 @@
         <v>677</v>
       </c>
       <c r="B686" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C686" s="3"/>
     </row>

--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -7902,7 +7902,7 @@
         <v>577</v>
       </c>
       <c r="B586" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C586" s="3"/>
     </row>
@@ -7947,7 +7947,7 @@
         <v>582</v>
       </c>
       <c r="B591" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C591" s="3"/>
     </row>
@@ -7983,7 +7983,7 @@
         <v>586</v>
       </c>
       <c r="B595" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C595" s="3"/>
     </row>
@@ -8037,7 +8037,7 @@
         <v>592</v>
       </c>
       <c r="B601" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C601" s="3"/>
     </row>
@@ -8055,7 +8055,7 @@
         <v>594</v>
       </c>
       <c r="B603" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C603" s="3"/>
     </row>
@@ -8118,7 +8118,7 @@
         <v>601</v>
       </c>
       <c r="B610" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C610" s="3"/>
     </row>
@@ -8163,7 +8163,7 @@
         <v>606</v>
       </c>
       <c r="B615" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C615" s="3"/>
     </row>
@@ -8226,7 +8226,7 @@
         <v>613</v>
       </c>
       <c r="B622" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C622" s="3"/>
     </row>
@@ -8235,7 +8235,7 @@
         <v>614</v>
       </c>
       <c r="B623" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C623" s="3"/>
     </row>
@@ -8262,7 +8262,7 @@
         <v>617</v>
       </c>
       <c r="B626" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C626" s="3"/>
     </row>
@@ -8271,7 +8271,7 @@
         <v>618</v>
       </c>
       <c r="B627" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C627" s="3"/>
     </row>
@@ -8361,7 +8361,7 @@
         <v>628</v>
       </c>
       <c r="B637" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C637" s="3"/>
     </row>
@@ -8397,7 +8397,7 @@
         <v>632</v>
       </c>
       <c r="B641" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C641" s="3"/>
     </row>
@@ -8406,7 +8406,7 @@
         <v>633</v>
       </c>
       <c r="B642" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" s="3"/>
     </row>
@@ -8415,7 +8415,7 @@
         <v>634</v>
       </c>
       <c r="B643" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C643" s="3"/>
     </row>
@@ -8424,7 +8424,7 @@
         <v>635</v>
       </c>
       <c r="B644" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C644" s="3"/>
     </row>
@@ -8433,7 +8433,7 @@
         <v>636</v>
       </c>
       <c r="B645" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C645" s="3"/>
     </row>
@@ -8442,7 +8442,7 @@
         <v>637</v>
       </c>
       <c r="B646" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C646" s="3"/>
     </row>
@@ -8469,7 +8469,7 @@
         <v>640</v>
       </c>
       <c r="B649" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C649" s="3"/>
     </row>
@@ -8478,7 +8478,7 @@
         <v>641</v>
       </c>
       <c r="B650" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C650" s="3"/>
     </row>
@@ -8487,7 +8487,7 @@
         <v>642</v>
       </c>
       <c r="B651" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C651" s="3"/>
     </row>
@@ -8496,7 +8496,7 @@
         <v>643</v>
       </c>
       <c r="B652" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C652" s="3"/>
     </row>
@@ -8505,7 +8505,7 @@
         <v>644</v>
       </c>
       <c r="B653" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C653" s="3"/>
     </row>
@@ -8514,7 +8514,7 @@
         <v>645</v>
       </c>
       <c r="B654" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C654" s="3"/>
     </row>
@@ -8523,7 +8523,7 @@
         <v>646</v>
       </c>
       <c r="B655" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C655" s="3"/>
     </row>
@@ -8532,7 +8532,7 @@
         <v>647</v>
       </c>
       <c r="B656" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C656" s="3"/>
     </row>
@@ -8541,7 +8541,7 @@
         <v>648</v>
       </c>
       <c r="B657" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C657" s="3"/>
     </row>
@@ -8550,7 +8550,7 @@
         <v>649</v>
       </c>
       <c r="B658" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" s="3"/>
     </row>
@@ -8559,7 +8559,7 @@
         <v>650</v>
       </c>
       <c r="B659" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" s="3"/>
     </row>
@@ -8568,7 +8568,7 @@
         <v>651</v>
       </c>
       <c r="B660" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C660" s="3"/>
     </row>

--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -1690,7 +1690,7 @@
     <t>História maluca e que não te leva a nada, uma viagem sem sentido.</t>
   </si>
   <si>
-    <t>Essa encomenda não veio pelos correios e chegou tanto os livros, como a cauxa do box amassadas.</t>
+    <t>Essa encomenda não veio pelos correios e chegou tanto os livros, como a caixa do box amassadas.</t>
   </si>
   <si>
     <t>Tinha os elementos para ser aquele chiche gostoso, mas não curti. O livro fala muito sobre o acordo não ser ilegal, mas se coagir alguém ao "casamento" sob ameaças não for ilegal esta sociedade está mesmo perdida. A química entre o casal logo no início é exagerada. Sofia tem um começo muito irritante. A cada reação, grito, tapa, que dava era "Ai meu Deus, não sou assim. Eu não respondo. Não sou agressiva!" Chata!! Heitor comete estupro naquele apartamento em New York.  O tratamento possessivo passa muito do limite entre excitante e abuso. O castigo de Heitor foi bom, mas o livro deveria ter acabado no máximo 30 páginas depois, o que já daria um ótimo epilogo, mas o texto se arrasta interminavelmente sem nenhum acontecimento. Muito cansativo!</t>
@@ -2223,7 +2223,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2235,12 +2235,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2293,7 +2287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2303,9 +2297,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -2621,9 +2612,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="255.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="255.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -2641,7 +2632,7 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2652,7 +2643,7 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2663,7 +2654,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2674,7 +2665,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
@@ -2683,7 +2674,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
@@ -2692,7 +2683,7 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="3"/>
@@ -2701,7 +2692,7 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="3"/>
@@ -2710,7 +2701,7 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="3"/>
@@ -2719,7 +2710,7 @@
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="3"/>
@@ -2728,7 +2719,7 @@
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
@@ -2737,7 +2728,7 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="3"/>
@@ -2746,7 +2737,7 @@
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="3"/>
@@ -2755,7 +2746,7 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="3"/>
@@ -2764,7 +2755,7 @@
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="3"/>
@@ -2773,7 +2764,7 @@
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="3"/>
@@ -2782,7 +2773,7 @@
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="3"/>
@@ -2791,7 +2782,7 @@
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="3"/>
@@ -2800,7 +2791,7 @@
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="3"/>
@@ -2809,7 +2800,7 @@
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="3"/>
@@ -2818,7 +2809,7 @@
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="3"/>
@@ -2827,7 +2818,7 @@
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>2</v>
       </c>
       <c r="C22" s="3"/>
@@ -2836,7 +2827,7 @@
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
@@ -2845,7 +2836,7 @@
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="C24" s="3"/>
@@ -2854,7 +2845,7 @@
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" s="3"/>
@@ -2863,7 +2854,7 @@
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="C26" s="3"/>
@@ -2872,7 +2863,7 @@
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
@@ -2881,7 +2872,7 @@
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="3"/>
@@ -2890,7 +2881,7 @@
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
@@ -2899,7 +2890,7 @@
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>2</v>
       </c>
       <c r="C30" s="3"/>
@@ -2908,7 +2899,7 @@
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="3"/>
@@ -2917,7 +2908,7 @@
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="3"/>
@@ -2926,7 +2917,7 @@
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>1</v>
       </c>
       <c r="C33" s="3"/>
@@ -2935,7 +2926,7 @@
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>1</v>
       </c>
       <c r="C34" s="3"/>
@@ -2944,7 +2935,7 @@
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" s="3"/>
@@ -2960,7 +2951,7 @@
       <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>2</v>
       </c>
       <c r="C37" s="3"/>
@@ -2969,7 +2960,7 @@
       <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>2</v>
       </c>
       <c r="C38" s="3"/>
@@ -2978,7 +2969,7 @@
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>0</v>
       </c>
       <c r="C39" s="3"/>
@@ -2987,7 +2978,7 @@
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="3"/>
@@ -2996,7 +2987,7 @@
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>1</v>
       </c>
       <c r="C41" s="3"/>
@@ -3005,7 +2996,7 @@
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2">
         <v>1</v>
       </c>
       <c r="C42" s="3"/>
@@ -3014,7 +3005,7 @@
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2">
         <v>1</v>
       </c>
       <c r="C43" s="3"/>
@@ -3023,7 +3014,7 @@
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>2</v>
       </c>
       <c r="C44" s="3"/>
@@ -3032,7 +3023,7 @@
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <v>0</v>
       </c>
       <c r="C45" s="3"/>
@@ -3041,7 +3032,7 @@
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>1</v>
       </c>
       <c r="C46" s="3"/>
@@ -3050,7 +3041,7 @@
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <v>1</v>
       </c>
       <c r="C47" s="3"/>
@@ -3059,7 +3050,7 @@
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2">
         <v>1</v>
       </c>
       <c r="C48" s="3"/>
@@ -3068,7 +3059,7 @@
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2">
         <v>1</v>
       </c>
       <c r="C49" s="3"/>
@@ -3077,7 +3068,7 @@
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="2">
         <v>1</v>
       </c>
       <c r="C50" s="3"/>
@@ -3086,7 +3077,7 @@
       <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2">
         <v>2</v>
       </c>
       <c r="C51" s="3"/>
@@ -3095,7 +3086,7 @@
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="2">
         <v>1</v>
       </c>
       <c r="C52" s="3"/>
@@ -3104,7 +3095,7 @@
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="2">
         <v>2</v>
       </c>
       <c r="C53" s="3"/>
@@ -3113,7 +3104,7 @@
       <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="2">
         <v>2</v>
       </c>
       <c r="C54" s="3"/>
@@ -3122,7 +3113,7 @@
       <c r="A55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="2">
         <v>1</v>
       </c>
       <c r="C55" s="3"/>
@@ -3131,7 +3122,7 @@
       <c r="A56" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="2">
         <v>0</v>
       </c>
       <c r="C56" s="3"/>
@@ -3140,7 +3131,7 @@
       <c r="A57" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="2">
         <v>1</v>
       </c>
       <c r="C57" s="3"/>
@@ -3149,7 +3140,7 @@
       <c r="A58" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="2">
         <v>2</v>
       </c>
       <c r="C58" s="3"/>
@@ -3158,7 +3149,7 @@
       <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="2">
         <v>0</v>
       </c>
       <c r="C59" s="3"/>
@@ -3167,7 +3158,7 @@
       <c r="A60" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60" s="3"/>
@@ -3176,7 +3167,7 @@
       <c r="A61" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="2">
         <v>0</v>
       </c>
       <c r="C61" s="3"/>
@@ -3185,7 +3176,7 @@
       <c r="A62" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="2">
         <v>1</v>
       </c>
       <c r="C62" s="3"/>
@@ -3194,7 +3185,7 @@
       <c r="A63" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="2">
         <v>1</v>
       </c>
       <c r="C63" s="3"/>
@@ -3203,7 +3194,7 @@
       <c r="A64" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="2">
         <v>1</v>
       </c>
       <c r="C64" s="3"/>
@@ -3212,7 +3203,7 @@
       <c r="A65" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="2">
         <v>0</v>
       </c>
       <c r="C65" s="3"/>
@@ -3221,7 +3212,7 @@
       <c r="A66" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="2">
         <v>2</v>
       </c>
       <c r="C66" s="3"/>
@@ -3230,7 +3221,7 @@
       <c r="A67" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="2">
         <v>1</v>
       </c>
       <c r="C67" s="3"/>
@@ -3239,7 +3230,7 @@
       <c r="A68" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="2">
         <v>0</v>
       </c>
       <c r="C68" s="3"/>
@@ -3248,7 +3239,7 @@
       <c r="A69" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="2">
         <v>1</v>
       </c>
       <c r="C69" s="3"/>
@@ -3257,7 +3248,7 @@
       <c r="A70" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="2">
         <v>2</v>
       </c>
       <c r="C70" s="3"/>
@@ -3266,7 +3257,7 @@
       <c r="A71" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="2">
         <v>1</v>
       </c>
       <c r="C71" s="3"/>
@@ -3275,7 +3266,7 @@
       <c r="A72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="2">
         <v>1</v>
       </c>
       <c r="C72" s="3"/>
@@ -3284,7 +3275,7 @@
       <c r="A73" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="2">
         <v>2</v>
       </c>
       <c r="C73" s="3"/>
@@ -3293,7 +3284,7 @@
       <c r="A74" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="2">
         <v>2</v>
       </c>
       <c r="C74" s="3"/>
@@ -3302,7 +3293,7 @@
       <c r="A75" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="2">
         <v>2</v>
       </c>
       <c r="C75" s="3"/>
@@ -3311,7 +3302,7 @@
       <c r="A76" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="2">
         <v>0</v>
       </c>
       <c r="C76" s="3"/>
@@ -3320,7 +3311,7 @@
       <c r="A77" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="2">
         <v>1</v>
       </c>
       <c r="C77" s="3"/>
@@ -3329,7 +3320,7 @@
       <c r="A78" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="2">
         <v>1</v>
       </c>
       <c r="C78" s="3"/>
@@ -3338,7 +3329,7 @@
       <c r="A79" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="2">
         <v>2</v>
       </c>
       <c r="C79" s="3"/>
@@ -3347,7 +3338,7 @@
       <c r="A80" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="2">
         <v>0</v>
       </c>
       <c r="C80" s="3"/>
@@ -3356,7 +3347,7 @@
       <c r="A81" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="2">
         <v>1</v>
       </c>
       <c r="C81" s="3"/>
@@ -3365,7 +3356,7 @@
       <c r="A82" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="2">
         <v>0</v>
       </c>
       <c r="C82" s="3"/>
@@ -3374,7 +3365,7 @@
       <c r="A83" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="2">
         <v>1</v>
       </c>
       <c r="C83" s="3"/>
@@ -3383,7 +3374,7 @@
       <c r="A84" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="2">
         <v>1</v>
       </c>
       <c r="C84" s="3"/>
@@ -3392,7 +3383,7 @@
       <c r="A85" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="2">
         <v>0</v>
       </c>
       <c r="C85" s="3"/>
@@ -3401,7 +3392,7 @@
       <c r="A86" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="2">
         <v>2</v>
       </c>
       <c r="C86" s="3"/>
@@ -3410,7 +3401,7 @@
       <c r="A87" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="2">
         <v>1</v>
       </c>
       <c r="C87" s="3"/>
@@ -3419,7 +3410,7 @@
       <c r="A88" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="2">
         <v>2</v>
       </c>
       <c r="C88" s="3"/>
@@ -3428,7 +3419,7 @@
       <c r="A89" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="2">
         <v>2</v>
       </c>
       <c r="C89" s="3"/>
@@ -3437,7 +3428,7 @@
       <c r="A90" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="2">
         <v>1</v>
       </c>
       <c r="C90" s="3"/>
@@ -3446,7 +3437,7 @@
       <c r="A91" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="2">
         <v>2</v>
       </c>
       <c r="C91" s="3"/>
@@ -3455,7 +3446,7 @@
       <c r="A92" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="2">
         <v>1</v>
       </c>
       <c r="C92" s="3"/>
@@ -3464,7 +3455,7 @@
       <c r="A93" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="2">
         <v>0</v>
       </c>
       <c r="C93" s="3"/>
@@ -3473,7 +3464,7 @@
       <c r="A94" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="2">
         <v>1</v>
       </c>
       <c r="C94" s="3"/>
@@ -3482,7 +3473,7 @@
       <c r="A95" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="2">
         <v>1</v>
       </c>
       <c r="C95" s="3"/>
@@ -3491,7 +3482,7 @@
       <c r="A96" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="2">
         <v>2</v>
       </c>
       <c r="C96" s="3"/>
@@ -3500,7 +3491,7 @@
       <c r="A97" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="2">
         <v>1</v>
       </c>
       <c r="C97" s="3"/>
@@ -3509,7 +3500,7 @@
       <c r="A98" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="2">
         <v>1</v>
       </c>
       <c r="C98" s="3"/>
@@ -3518,7 +3509,7 @@
       <c r="A99" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="2">
         <v>2</v>
       </c>
       <c r="C99" s="3"/>
@@ -3527,7 +3518,7 @@
       <c r="A100" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="2">
         <v>0</v>
       </c>
       <c r="C100" s="3"/>
@@ -3536,7 +3527,7 @@
       <c r="A101" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="2">
         <v>0</v>
       </c>
       <c r="C101" s="3"/>
@@ -3545,7 +3536,7 @@
       <c r="A102" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="2">
         <v>1</v>
       </c>
       <c r="C102" s="3"/>
@@ -3554,7 +3545,7 @@
       <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="2">
         <v>0</v>
       </c>
       <c r="C103" s="3"/>
@@ -3563,7 +3554,7 @@
       <c r="A104" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="2">
         <v>0</v>
       </c>
       <c r="C104" s="3"/>
@@ -3572,7 +3563,7 @@
       <c r="A105" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="2">
         <v>1</v>
       </c>
       <c r="C105" s="3"/>
@@ -3581,7 +3572,7 @@
       <c r="A106" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="2">
         <v>2</v>
       </c>
       <c r="C106" s="3"/>
@@ -3590,7 +3581,7 @@
       <c r="A107" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="2">
         <v>2</v>
       </c>
       <c r="C107" s="3"/>
@@ -3599,7 +3590,7 @@
       <c r="A108" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="2">
         <v>2</v>
       </c>
       <c r="C108" s="3"/>
@@ -3608,7 +3599,7 @@
       <c r="A109" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="2">
         <v>1</v>
       </c>
       <c r="C109" s="3"/>
@@ -3617,7 +3608,7 @@
       <c r="A110" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="2">
         <v>1</v>
       </c>
       <c r="C110" s="3"/>
@@ -3626,7 +3617,7 @@
       <c r="A111" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="2">
         <v>1</v>
       </c>
       <c r="C111" s="3"/>
@@ -3635,7 +3626,7 @@
       <c r="A112" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="2">
         <v>1</v>
       </c>
       <c r="C112" s="3"/>
@@ -3644,7 +3635,7 @@
       <c r="A113" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="2">
         <v>2</v>
       </c>
       <c r="C113" s="3"/>
@@ -3653,7 +3644,7 @@
       <c r="A114" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="2">
         <v>0</v>
       </c>
       <c r="C114" s="3"/>
@@ -3662,7 +3653,7 @@
       <c r="A115" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="2">
         <v>0</v>
       </c>
       <c r="C115" s="3"/>
@@ -3671,7 +3662,7 @@
       <c r="A116" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="2">
         <v>1</v>
       </c>
       <c r="C116" s="3"/>
@@ -3680,7 +3671,7 @@
       <c r="A117" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="2">
         <v>2</v>
       </c>
       <c r="C117" s="3"/>
@@ -3689,7 +3680,7 @@
       <c r="A118" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="2">
         <v>2</v>
       </c>
       <c r="C118" s="3"/>
@@ -3698,7 +3689,7 @@
       <c r="A119" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="2">
         <v>2</v>
       </c>
       <c r="C119" s="3"/>
@@ -3707,7 +3698,7 @@
       <c r="A120" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="2">
         <v>1</v>
       </c>
       <c r="C120" s="3"/>
@@ -3716,7 +3707,7 @@
       <c r="A121" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="2">
         <v>0</v>
       </c>
       <c r="C121" s="3"/>
@@ -3725,7 +3716,7 @@
       <c r="A122" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="2">
         <v>1</v>
       </c>
       <c r="C122" s="3"/>
@@ -3734,7 +3725,7 @@
       <c r="A123" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="2">
         <v>1</v>
       </c>
       <c r="C123" s="3"/>
@@ -3743,7 +3734,7 @@
       <c r="A124" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="2">
         <v>2</v>
       </c>
       <c r="C124" s="3"/>
@@ -3752,7 +3743,7 @@
       <c r="A125" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="2">
         <v>1</v>
       </c>
       <c r="C125" s="3"/>
@@ -3761,7 +3752,7 @@
       <c r="A126" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="2">
         <v>2</v>
       </c>
       <c r="C126" s="3"/>
@@ -3770,7 +3761,7 @@
       <c r="A127" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="2">
         <v>1</v>
       </c>
       <c r="C127" s="3"/>
@@ -3779,7 +3770,7 @@
       <c r="A128" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="2">
         <v>0</v>
       </c>
       <c r="C128" s="3"/>
@@ -3788,7 +3779,7 @@
       <c r="A129" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="2">
         <v>1</v>
       </c>
       <c r="C129" s="3"/>
@@ -3797,7 +3788,7 @@
       <c r="A130" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="2">
         <v>1</v>
       </c>
       <c r="C130" s="3"/>
@@ -3806,7 +3797,7 @@
       <c r="A131" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="2">
         <v>0</v>
       </c>
       <c r="C131" s="3"/>
@@ -3815,7 +3806,7 @@
       <c r="A132" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="2">
         <v>1</v>
       </c>
       <c r="C132" s="3"/>
@@ -3824,7 +3815,7 @@
       <c r="A133" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="2">
         <v>1</v>
       </c>
       <c r="C133" s="3"/>
@@ -3833,7 +3824,7 @@
       <c r="A134" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="2">
         <v>0</v>
       </c>
       <c r="C134" s="3"/>
@@ -3842,7 +3833,7 @@
       <c r="A135" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="2">
         <v>1</v>
       </c>
       <c r="C135" s="3"/>
@@ -3851,7 +3842,7 @@
       <c r="A136" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="2">
         <v>1</v>
       </c>
       <c r="C136" s="3"/>
@@ -3860,7 +3851,7 @@
       <c r="A137" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="2">
         <v>2</v>
       </c>
       <c r="C137" s="3"/>
@@ -3869,7 +3860,7 @@
       <c r="A138" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="2">
         <v>2</v>
       </c>
       <c r="C138" s="3"/>
@@ -3878,7 +3869,7 @@
       <c r="A139" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="2">
         <v>1</v>
       </c>
       <c r="C139" s="3"/>
@@ -3887,7 +3878,7 @@
       <c r="A140" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="2">
         <v>1</v>
       </c>
       <c r="C140" s="3"/>
@@ -3896,7 +3887,7 @@
       <c r="A141" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="2">
         <v>2</v>
       </c>
       <c r="C141" s="3"/>
@@ -3905,7 +3896,7 @@
       <c r="A142" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="2">
         <v>1</v>
       </c>
       <c r="C142" s="3"/>
@@ -3914,7 +3905,7 @@
       <c r="A143" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="2">
         <v>1</v>
       </c>
       <c r="C143" s="3"/>
@@ -3923,7 +3914,7 @@
       <c r="A144" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="2">
         <v>2</v>
       </c>
       <c r="C144" s="3"/>
@@ -3932,7 +3923,7 @@
       <c r="A145" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="2">
         <v>2</v>
       </c>
       <c r="C145" s="3"/>
@@ -3941,7 +3932,7 @@
       <c r="A146" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="2">
         <v>1</v>
       </c>
       <c r="C146" s="3"/>
@@ -3950,7 +3941,7 @@
       <c r="A147" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="2">
         <v>1</v>
       </c>
       <c r="C147" s="3"/>
@@ -3959,7 +3950,7 @@
       <c r="A148" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="2">
         <v>1</v>
       </c>
       <c r="C148" s="3"/>
@@ -3968,7 +3959,7 @@
       <c r="A149" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="2">
         <v>1</v>
       </c>
       <c r="C149" s="3"/>
@@ -3977,7 +3968,7 @@
       <c r="A150" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="2">
         <v>2</v>
       </c>
       <c r="C150" s="3"/>
@@ -3986,7 +3977,7 @@
       <c r="A151" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="2">
         <v>2</v>
       </c>
       <c r="C151" s="3"/>
@@ -3995,7 +3986,7 @@
       <c r="A152" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="2">
         <v>2</v>
       </c>
       <c r="C152" s="3"/>
@@ -4004,7 +3995,7 @@
       <c r="A153" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="2">
         <v>1</v>
       </c>
       <c r="C153" s="3"/>
@@ -4013,7 +4004,7 @@
       <c r="A154" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="2">
         <v>2</v>
       </c>
       <c r="C154" s="3"/>
@@ -4022,7 +4013,7 @@
       <c r="A155" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="2">
         <v>1</v>
       </c>
       <c r="C155" s="3"/>
@@ -4031,7 +4022,7 @@
       <c r="A156" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="2">
         <v>1</v>
       </c>
       <c r="C156" s="3"/>
@@ -4040,7 +4031,7 @@
       <c r="A157" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="2">
         <v>1</v>
       </c>
       <c r="C157" s="3"/>
@@ -4049,7 +4040,7 @@
       <c r="A158" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="2">
         <v>1</v>
       </c>
       <c r="C158" s="3"/>
@@ -4058,7 +4049,7 @@
       <c r="A159" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="2">
         <v>0</v>
       </c>
       <c r="C159" s="3"/>
@@ -4067,7 +4058,7 @@
       <c r="A160" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="2">
         <v>0</v>
       </c>
       <c r="C160" s="3"/>
@@ -4076,7 +4067,7 @@
       <c r="A161" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="2">
         <v>0</v>
       </c>
       <c r="C161" s="3"/>
@@ -4085,7 +4076,7 @@
       <c r="A162" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="2">
         <v>2</v>
       </c>
       <c r="C162" s="3"/>
@@ -4094,7 +4085,7 @@
       <c r="A163" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="2">
         <v>1</v>
       </c>
       <c r="C163" s="3"/>
@@ -4103,7 +4094,7 @@
       <c r="A164" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="2">
         <v>2</v>
       </c>
       <c r="C164" s="3"/>
@@ -4112,7 +4103,7 @@
       <c r="A165" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="2">
         <v>1</v>
       </c>
       <c r="C165" s="3"/>
@@ -4121,7 +4112,7 @@
       <c r="A166" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="2">
         <v>1</v>
       </c>
       <c r="C166" s="3"/>
@@ -4130,7 +4121,7 @@
       <c r="A167" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="2">
         <v>0</v>
       </c>
       <c r="C167" s="3"/>
@@ -4139,7 +4130,7 @@
       <c r="A168" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="2">
         <v>1</v>
       </c>
       <c r="C168" s="3"/>
@@ -4148,7 +4139,7 @@
       <c r="A169" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="2">
         <v>0</v>
       </c>
       <c r="C169" s="3"/>
@@ -4157,7 +4148,7 @@
       <c r="A170" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="2">
         <v>1</v>
       </c>
       <c r="C170" s="3"/>
@@ -4166,7 +4157,7 @@
       <c r="A171" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="2">
         <v>1</v>
       </c>
       <c r="C171" s="3"/>
@@ -4175,7 +4166,7 @@
       <c r="A172" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="2">
         <v>2</v>
       </c>
       <c r="C172" s="3"/>
@@ -4184,7 +4175,7 @@
       <c r="A173" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="2">
         <v>0</v>
       </c>
       <c r="C173" s="3"/>
@@ -4193,7 +4184,7 @@
       <c r="A174" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="2">
         <v>1</v>
       </c>
       <c r="C174" s="3"/>
@@ -4202,7 +4193,7 @@
       <c r="A175" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="2">
         <v>1</v>
       </c>
       <c r="C175" s="3"/>
@@ -4211,7 +4202,7 @@
       <c r="A176" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="2">
         <v>2</v>
       </c>
       <c r="C176" s="3"/>
@@ -4220,7 +4211,7 @@
       <c r="A177" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="2">
         <v>0</v>
       </c>
       <c r="C177" s="3"/>
@@ -4229,7 +4220,7 @@
       <c r="A178" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="2">
         <v>0</v>
       </c>
       <c r="C178" s="3"/>
@@ -4238,7 +4229,7 @@
       <c r="A179" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="2">
         <v>0</v>
       </c>
       <c r="C179" s="3"/>
@@ -4247,7 +4238,7 @@
       <c r="A180" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="2">
         <v>1</v>
       </c>
       <c r="C180" s="3"/>
@@ -4256,7 +4247,7 @@
       <c r="A181" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="2">
         <v>1</v>
       </c>
       <c r="C181" s="3"/>
@@ -4265,7 +4256,7 @@
       <c r="A182" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="2">
         <v>1</v>
       </c>
       <c r="C182" s="3"/>
@@ -4274,7 +4265,7 @@
       <c r="A183" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="2">
         <v>1</v>
       </c>
       <c r="C183" s="3"/>
@@ -4283,7 +4274,7 @@
       <c r="A184" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="2">
         <v>1</v>
       </c>
       <c r="C184" s="3"/>
@@ -4292,7 +4283,7 @@
       <c r="A185" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="2">
         <v>2</v>
       </c>
       <c r="C185" s="3"/>
@@ -4301,7 +4292,7 @@
       <c r="A186" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="2">
         <v>1</v>
       </c>
       <c r="C186" s="3"/>
@@ -4310,7 +4301,7 @@
       <c r="A187" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="2">
         <v>1</v>
       </c>
       <c r="C187" s="3"/>
@@ -4319,7 +4310,7 @@
       <c r="A188" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="2">
         <v>0</v>
       </c>
       <c r="C188" s="3"/>
@@ -4328,7 +4319,7 @@
       <c r="A189" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="2">
         <v>0</v>
       </c>
       <c r="C189" s="3"/>
@@ -4337,7 +4328,7 @@
       <c r="A190" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="2">
         <v>2</v>
       </c>
       <c r="C190" s="3"/>
@@ -4346,7 +4337,7 @@
       <c r="A191" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="2">
         <v>0</v>
       </c>
       <c r="C191" s="3"/>
@@ -4355,7 +4346,7 @@
       <c r="A192" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="2">
         <v>1</v>
       </c>
       <c r="C192" s="3"/>
@@ -4364,7 +4355,7 @@
       <c r="A193" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="2">
         <v>1</v>
       </c>
       <c r="C193" s="3"/>
@@ -4373,7 +4364,7 @@
       <c r="A194" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="2">
         <v>0</v>
       </c>
       <c r="C194" s="3"/>
@@ -4382,7 +4373,7 @@
       <c r="A195" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="2">
         <v>0</v>
       </c>
       <c r="C195" s="3"/>
@@ -4391,7 +4382,7 @@
       <c r="A196" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="2">
         <v>2</v>
       </c>
       <c r="C196" s="3"/>
@@ -4400,7 +4391,7 @@
       <c r="A197" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" s="2">
         <v>1</v>
       </c>
       <c r="C197" s="3"/>
@@ -4409,7 +4400,7 @@
       <c r="A198" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="2">
         <v>1</v>
       </c>
       <c r="C198" s="3"/>
@@ -4418,7 +4409,7 @@
       <c r="A199" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="2">
         <v>1</v>
       </c>
       <c r="C199" s="3"/>
@@ -4427,7 +4418,7 @@
       <c r="A200" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" s="2">
         <v>1</v>
       </c>
       <c r="C200" s="3"/>
@@ -4436,7 +4427,7 @@
       <c r="A201" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" s="2">
         <v>1</v>
       </c>
       <c r="C201" s="3"/>
@@ -4445,7 +4436,7 @@
       <c r="A202" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="2">
         <v>1</v>
       </c>
       <c r="C202" s="3"/>
@@ -4454,7 +4445,7 @@
       <c r="A203" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="2">
         <v>1</v>
       </c>
       <c r="C203" s="3"/>
@@ -4463,7 +4454,7 @@
       <c r="A204" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="2">
         <v>0</v>
       </c>
       <c r="C204" s="3"/>
@@ -4472,7 +4463,7 @@
       <c r="A205" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" s="2">
         <v>1</v>
       </c>
       <c r="C205" s="3"/>
@@ -4481,7 +4472,7 @@
       <c r="A206" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" s="2">
         <v>2</v>
       </c>
       <c r="C206" s="3"/>
@@ -4490,7 +4481,7 @@
       <c r="A207" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="2">
         <v>1</v>
       </c>
       <c r="C207" s="3"/>
@@ -4499,7 +4490,7 @@
       <c r="A208" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" s="2">
         <v>1</v>
       </c>
       <c r="C208" s="3"/>
@@ -4508,7 +4499,7 @@
       <c r="A209" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="2">
         <v>2</v>
       </c>
       <c r="C209" s="3"/>
@@ -4517,7 +4508,7 @@
       <c r="A210" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="2">
         <v>2</v>
       </c>
       <c r="C210" s="3"/>
@@ -4526,7 +4517,7 @@
       <c r="A211" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" s="2">
         <v>1</v>
       </c>
       <c r="C211" s="3"/>
@@ -4535,7 +4526,7 @@
       <c r="A212" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="2">
         <v>1</v>
       </c>
       <c r="C212" s="3"/>
@@ -4544,7 +4535,7 @@
       <c r="A213" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213" s="2">
         <v>0</v>
       </c>
       <c r="C213" s="3"/>
@@ -4553,7 +4544,7 @@
       <c r="A214" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="2">
         <v>1</v>
       </c>
       <c r="C214" s="3"/>
@@ -4562,7 +4553,7 @@
       <c r="A215" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="2">
         <v>2</v>
       </c>
       <c r="C215" s="3"/>
@@ -4571,7 +4562,7 @@
       <c r="A216" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216" s="2">
         <v>1</v>
       </c>
       <c r="C216" s="3"/>
@@ -4580,7 +4571,7 @@
       <c r="A217" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217" s="2">
         <v>0</v>
       </c>
       <c r="C217" s="3"/>
@@ -4589,7 +4580,7 @@
       <c r="A218" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="2">
         <v>0</v>
       </c>
       <c r="C218" s="3"/>
@@ -4598,7 +4589,7 @@
       <c r="A219" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="2">
         <v>2</v>
       </c>
       <c r="C219" s="3"/>
@@ -4607,7 +4598,7 @@
       <c r="A220" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="2">
         <v>1</v>
       </c>
       <c r="C220" s="3"/>
@@ -4616,7 +4607,7 @@
       <c r="A221" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221" s="2">
         <v>1</v>
       </c>
       <c r="C221" s="3"/>
@@ -4625,7 +4616,7 @@
       <c r="A222" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222" s="2">
         <v>1</v>
       </c>
       <c r="C222" s="3"/>
@@ -4634,7 +4625,7 @@
       <c r="A223" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223" s="2">
         <v>1</v>
       </c>
       <c r="C223" s="3"/>
@@ -4643,7 +4634,7 @@
       <c r="A224" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="2">
         <v>2</v>
       </c>
       <c r="C224" s="3"/>
@@ -4652,7 +4643,7 @@
       <c r="A225" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225" s="2">
         <v>2</v>
       </c>
       <c r="C225" s="3"/>
@@ -4661,7 +4652,7 @@
       <c r="A226" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="2">
         <v>2</v>
       </c>
       <c r="C226" s="3"/>
@@ -4670,7 +4661,7 @@
       <c r="A227" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227" s="2">
         <v>0</v>
       </c>
       <c r="C227" s="3"/>
@@ -4679,7 +4670,7 @@
       <c r="A228" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228" s="2">
         <v>1</v>
       </c>
       <c r="C228" s="3"/>
@@ -4688,7 +4679,7 @@
       <c r="A229" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229" s="2">
         <v>0</v>
       </c>
       <c r="C229" s="3"/>
@@ -4697,7 +4688,7 @@
       <c r="A230" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230" s="2">
         <v>2</v>
       </c>
       <c r="C230" s="3"/>
@@ -4706,7 +4697,7 @@
       <c r="A231" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231" s="2">
         <v>1</v>
       </c>
       <c r="C231" s="3"/>
@@ -4715,7 +4706,7 @@
       <c r="A232" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232" s="2">
         <v>1</v>
       </c>
       <c r="C232" s="3"/>
@@ -4724,7 +4715,7 @@
       <c r="A233" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233" s="2">
         <v>1</v>
       </c>
       <c r="C233" s="3"/>
@@ -4733,7 +4724,7 @@
       <c r="A234" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234" s="2">
         <v>1</v>
       </c>
       <c r="C234" s="3"/>
@@ -4742,7 +4733,7 @@
       <c r="A235" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235" s="2">
         <v>2</v>
       </c>
       <c r="C235" s="3"/>
@@ -4751,7 +4742,7 @@
       <c r="A236" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236" s="2">
         <v>2</v>
       </c>
       <c r="C236" s="3"/>
@@ -4760,7 +4751,7 @@
       <c r="A237" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B237" s="4">
+      <c r="B237" s="2">
         <v>0</v>
       </c>
       <c r="C237" s="3"/>
@@ -4769,7 +4760,7 @@
       <c r="A238" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238" s="2">
         <v>2</v>
       </c>
       <c r="C238" s="3"/>
@@ -4778,7 +4769,7 @@
       <c r="A239" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B239" s="2">
         <v>1</v>
       </c>
       <c r="C239" s="3"/>
@@ -4787,7 +4778,7 @@
       <c r="A240" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240" s="2">
         <v>1</v>
       </c>
       <c r="C240" s="3"/>
@@ -4796,7 +4787,7 @@
       <c r="A241" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B241" s="2">
         <v>1</v>
       </c>
       <c r="C241" s="3"/>
@@ -4805,7 +4796,7 @@
       <c r="A242" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242" s="2">
         <v>1</v>
       </c>
       <c r="C242" s="3"/>
@@ -4814,7 +4805,7 @@
       <c r="A243" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B243" s="2">
         <v>1</v>
       </c>
       <c r="C243" s="3"/>
@@ -4823,7 +4814,7 @@
       <c r="A244" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244" s="2">
         <v>1</v>
       </c>
       <c r="C244" s="3"/>
@@ -4832,7 +4823,7 @@
       <c r="A245" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B245" s="4">
+      <c r="B245" s="2">
         <v>1</v>
       </c>
       <c r="C245" s="3"/>
@@ -4841,7 +4832,7 @@
       <c r="A246" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B246" s="4">
+      <c r="B246" s="2">
         <v>1</v>
       </c>
       <c r="C246" s="3"/>
@@ -4850,7 +4841,7 @@
       <c r="A247" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B247" s="4">
+      <c r="B247" s="2">
         <v>0</v>
       </c>
       <c r="C247" s="3"/>
@@ -4859,7 +4850,7 @@
       <c r="A248" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B248" s="2">
         <v>0</v>
       </c>
       <c r="C248" s="3"/>
@@ -4868,7 +4859,7 @@
       <c r="A249" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B249" s="2">
         <v>1</v>
       </c>
       <c r="C249" s="3"/>
@@ -4877,7 +4868,7 @@
       <c r="A250" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250" s="2">
         <v>2</v>
       </c>
       <c r="C250" s="3"/>
@@ -4886,7 +4877,7 @@
       <c r="A251" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B251" s="2">
         <v>1</v>
       </c>
       <c r="C251" s="3"/>
@@ -4895,7 +4886,7 @@
       <c r="A252" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252" s="2">
         <v>1</v>
       </c>
       <c r="C252" s="3"/>
@@ -4904,7 +4895,7 @@
       <c r="A253" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B253" s="4">
+      <c r="B253" s="2">
         <v>1</v>
       </c>
       <c r="C253" s="3"/>
@@ -4913,7 +4904,7 @@
       <c r="A254" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B254" s="4">
+      <c r="B254" s="2">
         <v>2</v>
       </c>
       <c r="C254" s="3"/>
@@ -4922,7 +4913,7 @@
       <c r="A255" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B255" s="4">
+      <c r="B255" s="2">
         <v>0</v>
       </c>
       <c r="C255" s="3"/>
@@ -4931,7 +4922,7 @@
       <c r="A256" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B256" s="2">
         <v>0</v>
       </c>
       <c r="C256" s="3"/>
@@ -4940,7 +4931,7 @@
       <c r="A257" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B257" s="4">
+      <c r="B257" s="2">
         <v>2</v>
       </c>
       <c r="C257" s="3"/>
@@ -4949,7 +4940,7 @@
       <c r="A258" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B258" s="2">
         <v>1</v>
       </c>
       <c r="C258" s="3"/>
@@ -4958,7 +4949,7 @@
       <c r="A259" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B259" s="4">
+      <c r="B259" s="2">
         <v>1</v>
       </c>
       <c r="C259" s="3"/>
@@ -4967,7 +4958,7 @@
       <c r="A260" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B260" s="2">
         <v>2</v>
       </c>
       <c r="C260" s="3"/>
@@ -4976,7 +4967,7 @@
       <c r="A261" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B261" s="4">
+      <c r="B261" s="2">
         <v>1</v>
       </c>
       <c r="C261" s="3"/>
@@ -4985,7 +4976,7 @@
       <c r="A262" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B262" s="4">
+      <c r="B262" s="2">
         <v>0</v>
       </c>
       <c r="C262" s="3"/>
@@ -4994,7 +4985,7 @@
       <c r="A263" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B263" s="4">
+      <c r="B263" s="2">
         <v>1</v>
       </c>
       <c r="C263" s="3"/>
@@ -5003,7 +4994,7 @@
       <c r="A264" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B264" s="4">
+      <c r="B264" s="2">
         <v>1</v>
       </c>
       <c r="C264" s="3"/>
@@ -5012,7 +5003,7 @@
       <c r="A265" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B265" s="4">
+      <c r="B265" s="2">
         <v>0</v>
       </c>
       <c r="C265" s="3"/>
@@ -5021,7 +5012,7 @@
       <c r="A266" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B266" s="4">
+      <c r="B266" s="2">
         <v>2</v>
       </c>
       <c r="C266" s="3"/>
@@ -5030,7 +5021,7 @@
       <c r="A267" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B267" s="4">
+      <c r="B267" s="2">
         <v>1</v>
       </c>
       <c r="C267" s="3"/>
@@ -5039,7 +5030,7 @@
       <c r="A268" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B268" s="2">
         <v>0</v>
       </c>
       <c r="C268" s="3"/>
@@ -5048,7 +5039,7 @@
       <c r="A269" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B269" s="4">
+      <c r="B269" s="2">
         <v>1</v>
       </c>
       <c r="C269" s="3"/>
@@ -5057,7 +5048,7 @@
       <c r="A270" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B270" s="4">
+      <c r="B270" s="2">
         <v>1</v>
       </c>
       <c r="C270" s="3"/>
@@ -5066,7 +5057,7 @@
       <c r="A271" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B271" s="4">
+      <c r="B271" s="2">
         <v>1</v>
       </c>
       <c r="C271" s="3"/>
@@ -5075,7 +5066,7 @@
       <c r="A272" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B272" s="4">
+      <c r="B272" s="2">
         <v>2</v>
       </c>
       <c r="C272" s="3"/>
@@ -5084,7 +5075,7 @@
       <c r="A273" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B273" s="4">
+      <c r="B273" s="2">
         <v>0</v>
       </c>
       <c r="C273" s="3"/>
@@ -5093,7 +5084,7 @@
       <c r="A274" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B274" s="4">
+      <c r="B274" s="2">
         <v>0</v>
       </c>
       <c r="C274" s="3"/>
@@ -5102,7 +5093,7 @@
       <c r="A275" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B275" s="4">
+      <c r="B275" s="2">
         <v>2</v>
       </c>
       <c r="C275" s="3"/>
@@ -5111,7 +5102,7 @@
       <c r="A276" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B276" s="4">
+      <c r="B276" s="2">
         <v>0</v>
       </c>
       <c r="C276" s="3"/>
@@ -5120,7 +5111,7 @@
       <c r="A277" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B277" s="4">
+      <c r="B277" s="2">
         <v>1</v>
       </c>
       <c r="C277" s="3"/>
@@ -5129,7 +5120,7 @@
       <c r="A278" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B278" s="4">
+      <c r="B278" s="2">
         <v>0</v>
       </c>
       <c r="C278" s="3"/>
@@ -5138,7 +5129,7 @@
       <c r="A279" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B279" s="4">
+      <c r="B279" s="2">
         <v>1</v>
       </c>
       <c r="C279" s="3"/>
@@ -5147,7 +5138,7 @@
       <c r="A280" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B280" s="4">
+      <c r="B280" s="2">
         <v>2</v>
       </c>
       <c r="C280" s="3"/>
@@ -5156,7 +5147,7 @@
       <c r="A281" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B281" s="4">
+      <c r="B281" s="2">
         <v>1</v>
       </c>
       <c r="C281" s="3"/>
@@ -5165,7 +5156,7 @@
       <c r="A282" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B282" s="4">
+      <c r="B282" s="2">
         <v>0</v>
       </c>
       <c r="C282" s="3"/>
@@ -5174,7 +5165,7 @@
       <c r="A283" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B283" s="4">
+      <c r="B283" s="2">
         <v>1</v>
       </c>
       <c r="C283" s="3"/>
@@ -5183,7 +5174,7 @@
       <c r="A284" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B284" s="4">
+      <c r="B284" s="2">
         <v>1</v>
       </c>
       <c r="C284" s="3"/>
@@ -5192,7 +5183,7 @@
       <c r="A285" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B285" s="4">
+      <c r="B285" s="2">
         <v>0</v>
       </c>
       <c r="C285" s="3"/>
@@ -5201,7 +5192,7 @@
       <c r="A286" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B286" s="4">
+      <c r="B286" s="2">
         <v>1</v>
       </c>
       <c r="C286" s="3"/>
@@ -5210,7 +5201,7 @@
       <c r="A287" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B287" s="4">
+      <c r="B287" s="2">
         <v>0</v>
       </c>
       <c r="C287" s="3"/>
@@ -5219,7 +5210,7 @@
       <c r="A288" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B288" s="4">
+      <c r="B288" s="2">
         <v>2</v>
       </c>
       <c r="C288" s="3"/>
@@ -5228,7 +5219,7 @@
       <c r="A289" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B289" s="4">
+      <c r="B289" s="2">
         <v>2</v>
       </c>
       <c r="C289" s="3"/>
@@ -5237,7 +5228,7 @@
       <c r="A290" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B290" s="4">
+      <c r="B290" s="2">
         <v>0</v>
       </c>
       <c r="C290" s="3"/>
@@ -5246,7 +5237,7 @@
       <c r="A291" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B291" s="4">
+      <c r="B291" s="2">
         <v>2</v>
       </c>
       <c r="C291" s="3"/>
@@ -5255,7 +5246,7 @@
       <c r="A292" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B292" s="4">
+      <c r="B292" s="2">
         <v>2</v>
       </c>
       <c r="C292" s="3"/>
@@ -5264,7 +5255,7 @@
       <c r="A293" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B293" s="4">
+      <c r="B293" s="2">
         <v>1</v>
       </c>
       <c r="C293" s="3"/>
@@ -5273,7 +5264,7 @@
       <c r="A294" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B294" s="4">
+      <c r="B294" s="2">
         <v>0</v>
       </c>
       <c r="C294" s="3"/>
@@ -5282,7 +5273,7 @@
       <c r="A295" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B295" s="4">
+      <c r="B295" s="2">
         <v>2</v>
       </c>
       <c r="C295" s="3"/>
@@ -5291,7 +5282,7 @@
       <c r="A296" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B296" s="4">
+      <c r="B296" s="2">
         <v>2</v>
       </c>
       <c r="C296" s="3"/>
@@ -5300,7 +5291,7 @@
       <c r="A297" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B297" s="4">
+      <c r="B297" s="2">
         <v>2</v>
       </c>
       <c r="C297" s="3"/>
@@ -5309,7 +5300,7 @@
       <c r="A298" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B298" s="4">
+      <c r="B298" s="2">
         <v>0</v>
       </c>
       <c r="C298" s="3"/>
@@ -5318,7 +5309,7 @@
       <c r="A299" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B299" s="4">
+      <c r="B299" s="2">
         <v>1</v>
       </c>
       <c r="C299" s="3"/>
@@ -5327,7 +5318,7 @@
       <c r="A300" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B300" s="4">
+      <c r="B300" s="2">
         <v>2</v>
       </c>
       <c r="C300" s="3"/>
@@ -5336,7 +5327,7 @@
       <c r="A301" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B301" s="4">
+      <c r="B301" s="2">
         <v>0</v>
       </c>
       <c r="C301" s="3"/>
@@ -5345,7 +5336,7 @@
       <c r="A302" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B302" s="4">
+      <c r="B302" s="2">
         <v>1</v>
       </c>
       <c r="C302" s="3"/>
@@ -5354,7 +5345,7 @@
       <c r="A303" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B303" s="4">
+      <c r="B303" s="2">
         <v>0</v>
       </c>
       <c r="C303" s="3"/>
@@ -5363,7 +5354,7 @@
       <c r="A304" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B304" s="4">
+      <c r="B304" s="2">
         <v>1</v>
       </c>
       <c r="C304" s="3"/>
@@ -5372,7 +5363,7 @@
       <c r="A305" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B305" s="4">
+      <c r="B305" s="2">
         <v>0</v>
       </c>
       <c r="C305" s="3"/>
@@ -5381,7 +5372,7 @@
       <c r="A306" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B306" s="4">
+      <c r="B306" s="2">
         <v>1</v>
       </c>
       <c r="C306" s="3"/>
@@ -5390,7 +5381,7 @@
       <c r="A307" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B307" s="4">
+      <c r="B307" s="2">
         <v>1</v>
       </c>
       <c r="C307" s="3"/>
@@ -5399,7 +5390,7 @@
       <c r="A308" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B308" s="4">
+      <c r="B308" s="2">
         <v>0</v>
       </c>
       <c r="C308" s="3"/>
@@ -5408,7 +5399,7 @@
       <c r="A309" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B309" s="4">
+      <c r="B309" s="2">
         <v>1</v>
       </c>
       <c r="C309" s="3"/>
@@ -5417,7 +5408,7 @@
       <c r="A310" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B310" s="4">
+      <c r="B310" s="2">
         <v>1</v>
       </c>
       <c r="C310" s="3"/>
@@ -5426,7 +5417,7 @@
       <c r="A311" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B311" s="4">
+      <c r="B311" s="2">
         <v>0</v>
       </c>
       <c r="C311" s="3"/>
@@ -5435,7 +5426,7 @@
       <c r="A312" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B312" s="4">
+      <c r="B312" s="2">
         <v>0</v>
       </c>
       <c r="C312" s="3"/>
@@ -5444,7 +5435,7 @@
       <c r="A313" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B313" s="4">
+      <c r="B313" s="2">
         <v>1</v>
       </c>
       <c r="C313" s="3"/>
@@ -5453,7 +5444,7 @@
       <c r="A314" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B314" s="4">
+      <c r="B314" s="2">
         <v>1</v>
       </c>
       <c r="C314" s="3"/>
@@ -5462,7 +5453,7 @@
       <c r="A315" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B315" s="4">
+      <c r="B315" s="2">
         <v>2</v>
       </c>
       <c r="C315" s="3"/>
@@ -5471,7 +5462,7 @@
       <c r="A316" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B316" s="4">
+      <c r="B316" s="2">
         <v>1</v>
       </c>
       <c r="C316" s="3"/>
@@ -5480,7 +5471,7 @@
       <c r="A317" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B317" s="4">
+      <c r="B317" s="2">
         <v>2</v>
       </c>
       <c r="C317" s="3"/>
@@ -5489,7 +5480,7 @@
       <c r="A318" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B318" s="4">
+      <c r="B318" s="2">
         <v>1</v>
       </c>
       <c r="C318" s="3"/>
@@ -5498,7 +5489,7 @@
       <c r="A319" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B319" s="4">
+      <c r="B319" s="2">
         <v>1</v>
       </c>
       <c r="C319" s="3"/>
@@ -5507,7 +5498,7 @@
       <c r="A320" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B320" s="4">
+      <c r="B320" s="2">
         <v>2</v>
       </c>
       <c r="C320" s="3"/>
@@ -5516,7 +5507,7 @@
       <c r="A321" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B321" s="4">
+      <c r="B321" s="2">
         <v>0</v>
       </c>
       <c r="C321" s="3"/>
@@ -5525,7 +5516,7 @@
       <c r="A322" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B322" s="4">
+      <c r="B322" s="2">
         <v>1</v>
       </c>
       <c r="C322" s="3"/>
@@ -5534,7 +5525,7 @@
       <c r="A323" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B323" s="4">
+      <c r="B323" s="2">
         <v>2</v>
       </c>
       <c r="C323" s="3"/>
@@ -5543,7 +5534,7 @@
       <c r="A324" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B324" s="4">
+      <c r="B324" s="2">
         <v>1</v>
       </c>
       <c r="C324" s="3"/>
@@ -5552,7 +5543,7 @@
       <c r="A325" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B325" s="4">
+      <c r="B325" s="2">
         <v>0</v>
       </c>
       <c r="C325" s="3"/>
@@ -5561,7 +5552,7 @@
       <c r="A326" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B326" s="4">
+      <c r="B326" s="2">
         <v>0</v>
       </c>
       <c r="C326" s="3"/>
@@ -5570,7 +5561,7 @@
       <c r="A327" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B327" s="4">
+      <c r="B327" s="2">
         <v>1</v>
       </c>
       <c r="C327" s="3"/>
@@ -5579,7 +5570,7 @@
       <c r="A328" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B328" s="4">
+      <c r="B328" s="2">
         <v>1</v>
       </c>
       <c r="C328" s="3"/>
@@ -5588,7 +5579,7 @@
       <c r="A329" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B329" s="4">
+      <c r="B329" s="2">
         <v>2</v>
       </c>
       <c r="C329" s="3"/>
@@ -5597,7 +5588,7 @@
       <c r="A330" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B330" s="4">
+      <c r="B330" s="2">
         <v>0</v>
       </c>
       <c r="C330" s="3"/>
@@ -5606,7 +5597,7 @@
       <c r="A331" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B331" s="4">
+      <c r="B331" s="2">
         <v>1</v>
       </c>
       <c r="C331" s="3"/>
@@ -5615,7 +5606,7 @@
       <c r="A332" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B332" s="4">
+      <c r="B332" s="2">
         <v>1</v>
       </c>
       <c r="C332" s="3"/>
@@ -5624,7 +5615,7 @@
       <c r="A333" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B333" s="4">
+      <c r="B333" s="2">
         <v>0</v>
       </c>
       <c r="C333" s="3"/>
@@ -5633,7 +5624,7 @@
       <c r="A334" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B334" s="4">
+      <c r="B334" s="2">
         <v>1</v>
       </c>
       <c r="C334" s="3"/>
@@ -5642,7 +5633,7 @@
       <c r="A335" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B335" s="4">
+      <c r="B335" s="2">
         <v>1</v>
       </c>
       <c r="C335" s="3"/>
@@ -5651,7 +5642,7 @@
       <c r="A336" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B336" s="4">
+      <c r="B336" s="2">
         <v>2</v>
       </c>
       <c r="C336" s="3"/>
@@ -5660,7 +5651,7 @@
       <c r="A337" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B337" s="4">
+      <c r="B337" s="2">
         <v>0</v>
       </c>
       <c r="C337" s="3"/>
@@ -5669,7 +5660,7 @@
       <c r="A338" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B338" s="4">
+      <c r="B338" s="2">
         <v>0</v>
       </c>
       <c r="C338" s="3"/>
@@ -5678,7 +5669,7 @@
       <c r="A339" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B339" s="4">
+      <c r="B339" s="2">
         <v>0</v>
       </c>
       <c r="C339" s="3"/>
@@ -5687,7 +5678,7 @@
       <c r="A340" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B340" s="4">
+      <c r="B340" s="2">
         <v>2</v>
       </c>
       <c r="C340" s="3"/>
@@ -5696,7 +5687,7 @@
       <c r="A341" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B341" s="4">
+      <c r="B341" s="2">
         <v>2</v>
       </c>
       <c r="C341" s="3"/>
@@ -5705,7 +5696,7 @@
       <c r="A342" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B342" s="4">
+      <c r="B342" s="2">
         <v>2</v>
       </c>
       <c r="C342" s="3"/>
@@ -5714,7 +5705,7 @@
       <c r="A343" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B343" s="4">
+      <c r="B343" s="2">
         <v>1</v>
       </c>
       <c r="C343" s="3"/>
@@ -5723,7 +5714,7 @@
       <c r="A344" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B344" s="4">
+      <c r="B344" s="2">
         <v>1</v>
       </c>
       <c r="C344" s="3"/>
@@ -5732,7 +5723,7 @@
       <c r="A345" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B345" s="4">
+      <c r="B345" s="2">
         <v>2</v>
       </c>
       <c r="C345" s="3"/>
@@ -5741,7 +5732,7 @@
       <c r="A346" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B346" s="4">
+      <c r="B346" s="2">
         <v>0</v>
       </c>
       <c r="C346" s="3"/>
@@ -5750,7 +5741,7 @@
       <c r="A347" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B347" s="4">
+      <c r="B347" s="2">
         <v>2</v>
       </c>
       <c r="C347" s="3"/>
@@ -5759,7 +5750,7 @@
       <c r="A348" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B348" s="4">
+      <c r="B348" s="2">
         <v>2</v>
       </c>
       <c r="C348" s="3"/>
@@ -5768,7 +5759,7 @@
       <c r="A349" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B349" s="4">
+      <c r="B349" s="2">
         <v>1</v>
       </c>
       <c r="C349" s="3"/>
@@ -5777,7 +5768,7 @@
       <c r="A350" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B350" s="4">
+      <c r="B350" s="2">
         <v>0</v>
       </c>
       <c r="C350" s="3"/>
@@ -5786,7 +5777,7 @@
       <c r="A351" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B351" s="4">
+      <c r="B351" s="2">
         <v>0</v>
       </c>
       <c r="C351" s="3"/>
@@ -5795,7 +5786,7 @@
       <c r="A352" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B352" s="4">
+      <c r="B352" s="2">
         <v>0</v>
       </c>
       <c r="C352" s="3"/>
@@ -5804,7 +5795,7 @@
       <c r="A353" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B353" s="4">
+      <c r="B353" s="2">
         <v>2</v>
       </c>
       <c r="C353" s="3"/>
@@ -5813,7 +5804,7 @@
       <c r="A354" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B354" s="4">
+      <c r="B354" s="2">
         <v>1</v>
       </c>
       <c r="C354" s="3"/>
@@ -5822,7 +5813,7 @@
       <c r="A355" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B355" s="4">
+      <c r="B355" s="2">
         <v>1</v>
       </c>
       <c r="C355" s="3"/>
@@ -5831,7 +5822,7 @@
       <c r="A356" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B356" s="4">
+      <c r="B356" s="2">
         <v>0</v>
       </c>
       <c r="C356" s="3"/>
@@ -5840,7 +5831,7 @@
       <c r="A357" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B357" s="4">
+      <c r="B357" s="2">
         <v>0</v>
       </c>
       <c r="C357" s="3"/>
@@ -5849,7 +5840,7 @@
       <c r="A358" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B358" s="4">
+      <c r="B358" s="2">
         <v>1</v>
       </c>
       <c r="C358" s="3"/>
@@ -5858,7 +5849,7 @@
       <c r="A359" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B359" s="4">
+      <c r="B359" s="2">
         <v>0</v>
       </c>
       <c r="C359" s="3"/>
@@ -5867,7 +5858,7 @@
       <c r="A360" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B360" s="4">
+      <c r="B360" s="2">
         <v>1</v>
       </c>
       <c r="C360" s="3"/>
@@ -5876,7 +5867,7 @@
       <c r="A361" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B361" s="4">
+      <c r="B361" s="2">
         <v>1</v>
       </c>
       <c r="C361" s="3"/>
@@ -5885,7 +5876,7 @@
       <c r="A362" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B362" s="4">
+      <c r="B362" s="2">
         <v>1</v>
       </c>
       <c r="C362" s="3"/>
@@ -5894,7 +5885,7 @@
       <c r="A363" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B363" s="4">
+      <c r="B363" s="2">
         <v>0</v>
       </c>
       <c r="C363" s="3"/>
@@ -5903,7 +5894,7 @@
       <c r="A364" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B364" s="4">
+      <c r="B364" s="2">
         <v>1</v>
       </c>
       <c r="C364" s="3"/>
@@ -5912,7 +5903,7 @@
       <c r="A365" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B365" s="4">
+      <c r="B365" s="2">
         <v>1</v>
       </c>
       <c r="C365" s="3"/>
@@ -5921,7 +5912,7 @@
       <c r="A366" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B366" s="4">
+      <c r="B366" s="2">
         <v>1</v>
       </c>
       <c r="C366" s="3"/>
@@ -5930,7 +5921,7 @@
       <c r="A367" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B367" s="4">
+      <c r="B367" s="2">
         <v>2</v>
       </c>
       <c r="C367" s="3"/>
@@ -5939,7 +5930,7 @@
       <c r="A368" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B368" s="4">
+      <c r="B368" s="2">
         <v>1</v>
       </c>
       <c r="C368" s="3"/>
@@ -5948,7 +5939,7 @@
       <c r="A369" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B369" s="4">
+      <c r="B369" s="2">
         <v>0</v>
       </c>
       <c r="C369" s="3"/>
@@ -5957,7 +5948,7 @@
       <c r="A370" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B370" s="4">
+      <c r="B370" s="2">
         <v>1</v>
       </c>
       <c r="C370" s="3"/>
@@ -5966,7 +5957,7 @@
       <c r="A371" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B371" s="4">
+      <c r="B371" s="2">
         <v>1</v>
       </c>
       <c r="C371" s="3"/>
@@ -5975,7 +5966,7 @@
       <c r="A372" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B372" s="4">
+      <c r="B372" s="2">
         <v>0</v>
       </c>
       <c r="C372" s="3"/>
@@ -5984,7 +5975,7 @@
       <c r="A373" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B373" s="4">
+      <c r="B373" s="2">
         <v>1</v>
       </c>
       <c r="C373" s="3"/>
@@ -5993,7 +5984,7 @@
       <c r="A374" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B374" s="4">
+      <c r="B374" s="2">
         <v>1</v>
       </c>
       <c r="C374" s="3"/>
@@ -6002,7 +5993,7 @@
       <c r="A375" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B375" s="4">
+      <c r="B375" s="2">
         <v>2</v>
       </c>
       <c r="C375" s="3"/>
@@ -6011,7 +6002,7 @@
       <c r="A376" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B376" s="4">
+      <c r="B376" s="2">
         <v>1</v>
       </c>
       <c r="C376" s="3"/>
@@ -6020,7 +6011,7 @@
       <c r="A377" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B377" s="4">
+      <c r="B377" s="2">
         <v>1</v>
       </c>
       <c r="C377" s="3"/>
@@ -6029,7 +6020,7 @@
       <c r="A378" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B378" s="4">
+      <c r="B378" s="2">
         <v>0</v>
       </c>
       <c r="C378" s="3"/>
@@ -6038,7 +6029,7 @@
       <c r="A379" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B379" s="4">
+      <c r="B379" s="2">
         <v>2</v>
       </c>
       <c r="C379" s="3"/>
@@ -6047,7 +6038,7 @@
       <c r="A380" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B380" s="4">
+      <c r="B380" s="2">
         <v>0</v>
       </c>
       <c r="C380" s="3"/>
@@ -6056,7 +6047,7 @@
       <c r="A381" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B381" s="4">
+      <c r="B381" s="2">
         <v>1</v>
       </c>
       <c r="C381" s="3"/>
@@ -6065,7 +6056,7 @@
       <c r="A382" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B382" s="4">
+      <c r="B382" s="2">
         <v>1</v>
       </c>
       <c r="C382" s="3"/>
@@ -6074,7 +6065,7 @@
       <c r="A383" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B383" s="4">
+      <c r="B383" s="2">
         <v>1</v>
       </c>
       <c r="C383" s="3"/>
@@ -6083,7 +6074,7 @@
       <c r="A384" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B384" s="4">
+      <c r="B384" s="2">
         <v>0</v>
       </c>
       <c r="C384" s="3"/>
@@ -6092,7 +6083,7 @@
       <c r="A385" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B385" s="4">
+      <c r="B385" s="2">
         <v>2</v>
       </c>
       <c r="C385" s="3"/>
@@ -6101,7 +6092,7 @@
       <c r="A386" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B386" s="4">
+      <c r="B386" s="2">
         <v>2</v>
       </c>
       <c r="C386" s="3"/>
@@ -6110,7 +6101,7 @@
       <c r="A387" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B387" s="4">
+      <c r="B387" s="2">
         <v>0</v>
       </c>
       <c r="C387" s="3"/>
@@ -6119,7 +6110,7 @@
       <c r="A388" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B388" s="4">
+      <c r="B388" s="2">
         <v>0</v>
       </c>
       <c r="C388" s="3"/>
@@ -6128,7 +6119,7 @@
       <c r="A389" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B389" s="4">
+      <c r="B389" s="2">
         <v>0</v>
       </c>
       <c r="C389" s="3"/>
@@ -6137,7 +6128,7 @@
       <c r="A390" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B390" s="4">
+      <c r="B390" s="2">
         <v>0</v>
       </c>
       <c r="C390" s="3"/>
@@ -6146,7 +6137,7 @@
       <c r="A391" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B391" s="4">
+      <c r="B391" s="2">
         <v>2</v>
       </c>
       <c r="C391" s="3"/>
@@ -6155,7 +6146,7 @@
       <c r="A392" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B392" s="4">
+      <c r="B392" s="2">
         <v>1</v>
       </c>
       <c r="C392" s="3"/>
@@ -6164,7 +6155,7 @@
       <c r="A393" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B393" s="4">
+      <c r="B393" s="2">
         <v>0</v>
       </c>
       <c r="C393" s="3"/>
@@ -6173,7 +6164,7 @@
       <c r="A394" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B394" s="4">
+      <c r="B394" s="2">
         <v>1</v>
       </c>
       <c r="C394" s="3"/>
@@ -6182,7 +6173,7 @@
       <c r="A395" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B395" s="4">
+      <c r="B395" s="2">
         <v>1</v>
       </c>
       <c r="C395" s="3"/>
@@ -6191,7 +6182,7 @@
       <c r="A396" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B396" s="4">
+      <c r="B396" s="2">
         <v>1</v>
       </c>
       <c r="C396" s="3"/>
@@ -6200,7 +6191,7 @@
       <c r="A397" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B397" s="4">
+      <c r="B397" s="2">
         <v>2</v>
       </c>
       <c r="C397" s="3"/>
@@ -6209,7 +6200,7 @@
       <c r="A398" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B398" s="4">
+      <c r="B398" s="2">
         <v>2</v>
       </c>
       <c r="C398" s="3"/>
@@ -6218,7 +6209,7 @@
       <c r="A399" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B399" s="4">
+      <c r="B399" s="2">
         <v>1</v>
       </c>
       <c r="C399" s="3"/>
@@ -6227,7 +6218,7 @@
       <c r="A400" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B400" s="4">
+      <c r="B400" s="2">
         <v>2</v>
       </c>
       <c r="C400" s="3"/>
@@ -6236,7 +6227,7 @@
       <c r="A401" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B401" s="4">
+      <c r="B401" s="2">
         <v>0</v>
       </c>
       <c r="C401" s="3"/>
@@ -6245,7 +6236,7 @@
       <c r="A402" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B402" s="4">
+      <c r="B402" s="2">
         <v>2</v>
       </c>
       <c r="C402" s="3"/>
@@ -6254,7 +6245,7 @@
       <c r="A403" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B403" s="4">
+      <c r="B403" s="2">
         <v>1</v>
       </c>
       <c r="C403" s="3"/>
@@ -6263,7 +6254,7 @@
       <c r="A404" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B404" s="4">
+      <c r="B404" s="2">
         <v>0</v>
       </c>
       <c r="C404" s="3"/>
@@ -6272,7 +6263,7 @@
       <c r="A405" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B405" s="4">
+      <c r="B405" s="2">
         <v>1</v>
       </c>
       <c r="C405" s="3"/>
@@ -6281,7 +6272,7 @@
       <c r="A406" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B406" s="4">
+      <c r="B406" s="2">
         <v>0</v>
       </c>
       <c r="C406" s="3"/>
@@ -6290,7 +6281,7 @@
       <c r="A407" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B407" s="4">
+      <c r="B407" s="2">
         <v>1</v>
       </c>
       <c r="C407" s="3"/>
@@ -6299,7 +6290,7 @@
       <c r="A408" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B408" s="4">
+      <c r="B408" s="2">
         <v>0</v>
       </c>
       <c r="C408" s="3"/>
@@ -6308,7 +6299,7 @@
       <c r="A409" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B409" s="4">
+      <c r="B409" s="2">
         <v>1</v>
       </c>
       <c r="C409" s="3"/>
@@ -6317,7 +6308,7 @@
       <c r="A410" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B410" s="4">
+      <c r="B410" s="2">
         <v>0</v>
       </c>
       <c r="C410" s="3"/>
@@ -6326,7 +6317,7 @@
       <c r="A411" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B411" s="4">
+      <c r="B411" s="2">
         <v>2</v>
       </c>
       <c r="C411" s="3"/>
@@ -6335,7 +6326,7 @@
       <c r="A412" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B412" s="4">
+      <c r="B412" s="2">
         <v>2</v>
       </c>
       <c r="C412" s="3"/>
@@ -6344,7 +6335,7 @@
       <c r="A413" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B413" s="4">
+      <c r="B413" s="2">
         <v>1</v>
       </c>
       <c r="C413" s="3"/>
@@ -6353,7 +6344,7 @@
       <c r="A414" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B414" s="4">
+      <c r="B414" s="2">
         <v>2</v>
       </c>
       <c r="C414" s="3"/>
@@ -6362,7 +6353,7 @@
       <c r="A415" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B415" s="4">
+      <c r="B415" s="2">
         <v>1</v>
       </c>
       <c r="C415" s="3"/>
@@ -6371,7 +6362,7 @@
       <c r="A416" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B416" s="4">
+      <c r="B416" s="2">
         <v>0</v>
       </c>
       <c r="C416" s="3"/>
@@ -6380,7 +6371,7 @@
       <c r="A417" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B417" s="4">
+      <c r="B417" s="2">
         <v>1</v>
       </c>
       <c r="C417" s="3"/>
@@ -6389,7 +6380,7 @@
       <c r="A418" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B418" s="4">
+      <c r="B418" s="2">
         <v>1</v>
       </c>
       <c r="C418" s="3"/>
@@ -6398,7 +6389,7 @@
       <c r="A419" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B419" s="4">
+      <c r="B419" s="2">
         <v>0</v>
       </c>
       <c r="C419" s="3"/>
@@ -6407,7 +6398,7 @@
       <c r="A420" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B420" s="4">
+      <c r="B420" s="2">
         <v>1</v>
       </c>
       <c r="C420" s="3"/>
@@ -6416,7 +6407,7 @@
       <c r="A421" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B421" s="4">
+      <c r="B421" s="2">
         <v>1</v>
       </c>
       <c r="C421" s="3"/>
@@ -6425,7 +6416,7 @@
       <c r="A422" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B422" s="4">
+      <c r="B422" s="2">
         <v>2</v>
       </c>
       <c r="C422" s="3"/>
@@ -6434,7 +6425,7 @@
       <c r="A423" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B423" s="4">
+      <c r="B423" s="2">
         <v>1</v>
       </c>
       <c r="C423" s="3"/>
@@ -6443,7 +6434,7 @@
       <c r="A424" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B424" s="4">
+      <c r="B424" s="2">
         <v>0</v>
       </c>
       <c r="C424" s="3"/>
@@ -6452,7 +6443,7 @@
       <c r="A425" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B425" s="4">
+      <c r="B425" s="2">
         <v>1</v>
       </c>
       <c r="C425" s="3"/>
@@ -6461,7 +6452,7 @@
       <c r="A426" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B426" s="4">
+      <c r="B426" s="2">
         <v>2</v>
       </c>
       <c r="C426" s="3"/>
@@ -6470,7 +6461,7 @@
       <c r="A427" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B427" s="4">
+      <c r="B427" s="2">
         <v>1</v>
       </c>
       <c r="C427" s="3"/>
@@ -6479,7 +6470,7 @@
       <c r="A428" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B428" s="4">
+      <c r="B428" s="2">
         <v>0</v>
       </c>
       <c r="C428" s="3"/>
@@ -6488,7 +6479,7 @@
       <c r="A429" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B429" s="4">
+      <c r="B429" s="2">
         <v>0</v>
       </c>
       <c r="C429" s="3"/>
@@ -6497,7 +6488,7 @@
       <c r="A430" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B430" s="4">
+      <c r="B430" s="2">
         <v>2</v>
       </c>
       <c r="C430" s="3"/>
@@ -6506,7 +6497,7 @@
       <c r="A431" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B431" s="4">
+      <c r="B431" s="2">
         <v>1</v>
       </c>
       <c r="C431" s="3"/>
@@ -6515,7 +6506,7 @@
       <c r="A432" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B432" s="4">
+      <c r="B432" s="2">
         <v>1</v>
       </c>
       <c r="C432" s="3"/>
@@ -6524,7 +6515,7 @@
       <c r="A433" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B433" s="4">
+      <c r="B433" s="2">
         <v>2</v>
       </c>
       <c r="C433" s="3"/>
@@ -6533,7 +6524,7 @@
       <c r="A434" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B434" s="4">
+      <c r="B434" s="2">
         <v>0</v>
       </c>
       <c r="C434" s="3"/>
@@ -6542,7 +6533,7 @@
       <c r="A435" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B435" s="4">
+      <c r="B435" s="2">
         <v>1</v>
       </c>
       <c r="C435" s="3"/>
@@ -6551,7 +6542,7 @@
       <c r="A436" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B436" s="4">
+      <c r="B436" s="2">
         <v>2</v>
       </c>
       <c r="C436" s="3"/>
@@ -6560,7 +6551,7 @@
       <c r="A437" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B437" s="4">
+      <c r="B437" s="2">
         <v>0</v>
       </c>
       <c r="C437" s="3"/>
@@ -6569,7 +6560,7 @@
       <c r="A438" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B438" s="4">
+      <c r="B438" s="2">
         <v>1</v>
       </c>
       <c r="C438" s="3"/>
@@ -6578,7 +6569,7 @@
       <c r="A439" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B439" s="4">
+      <c r="B439" s="2">
         <v>1</v>
       </c>
       <c r="C439" s="3"/>
@@ -6587,7 +6578,7 @@
       <c r="A440" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B440" s="4">
+      <c r="B440" s="2">
         <v>1</v>
       </c>
       <c r="C440" s="3"/>
@@ -6596,7 +6587,7 @@
       <c r="A441" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B441" s="4">
+      <c r="B441" s="2">
         <v>2</v>
       </c>
       <c r="C441" s="3"/>
@@ -6605,7 +6596,7 @@
       <c r="A442" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B442" s="4">
+      <c r="B442" s="2">
         <v>1</v>
       </c>
       <c r="C442" s="3"/>
@@ -6614,7 +6605,7 @@
       <c r="A443" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B443" s="4">
+      <c r="B443" s="2">
         <v>2</v>
       </c>
       <c r="C443" s="3"/>
@@ -6623,7 +6614,7 @@
       <c r="A444" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B444" s="4">
+      <c r="B444" s="2">
         <v>2</v>
       </c>
       <c r="C444" s="3"/>
@@ -6632,7 +6623,7 @@
       <c r="A445" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B445" s="4">
+      <c r="B445" s="2">
         <v>0</v>
       </c>
       <c r="C445" s="3"/>
@@ -6641,7 +6632,7 @@
       <c r="A446" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B446" s="4">
+      <c r="B446" s="2">
         <v>2</v>
       </c>
       <c r="C446" s="3"/>
@@ -6650,7 +6641,7 @@
       <c r="A447" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B447" s="4">
+      <c r="B447" s="2">
         <v>2</v>
       </c>
       <c r="C447" s="3"/>
@@ -6659,7 +6650,7 @@
       <c r="A448" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B448" s="4">
+      <c r="B448" s="2">
         <v>1</v>
       </c>
       <c r="C448" s="3"/>
@@ -6668,7 +6659,7 @@
       <c r="A449" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B449" s="4">
+      <c r="B449" s="2">
         <v>1</v>
       </c>
       <c r="C449" s="3"/>
@@ -6677,7 +6668,7 @@
       <c r="A450" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B450" s="4">
+      <c r="B450" s="2">
         <v>0</v>
       </c>
       <c r="C450" s="3"/>
@@ -6686,7 +6677,7 @@
       <c r="A451" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B451" s="4">
+      <c r="B451" s="2">
         <v>2</v>
       </c>
       <c r="C451" s="3"/>
@@ -6695,7 +6686,7 @@
       <c r="A452" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B452" s="4">
+      <c r="B452" s="2">
         <v>0</v>
       </c>
       <c r="C452" s="3"/>
@@ -6704,7 +6695,7 @@
       <c r="A453" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B453" s="4">
+      <c r="B453" s="2">
         <v>1</v>
       </c>
       <c r="C453" s="3"/>
@@ -6713,7 +6704,7 @@
       <c r="A454" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B454" s="4">
+      <c r="B454" s="2">
         <v>1</v>
       </c>
       <c r="C454" s="3"/>
@@ -6722,7 +6713,7 @@
       <c r="A455" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B455" s="4">
+      <c r="B455" s="2">
         <v>1</v>
       </c>
       <c r="C455" s="3"/>
@@ -6731,7 +6722,7 @@
       <c r="A456" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B456" s="4">
+      <c r="B456" s="2">
         <v>1</v>
       </c>
       <c r="C456" s="3"/>
@@ -6740,7 +6731,7 @@
       <c r="A457" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B457" s="4">
+      <c r="B457" s="2">
         <v>0</v>
       </c>
       <c r="C457" s="3"/>
@@ -6749,7 +6740,7 @@
       <c r="A458" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B458" s="4">
+      <c r="B458" s="2">
         <v>2</v>
       </c>
       <c r="C458" s="3"/>
@@ -6758,7 +6749,7 @@
       <c r="A459" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B459" s="4">
+      <c r="B459" s="2">
         <v>1</v>
       </c>
       <c r="C459" s="3"/>
@@ -6767,7 +6758,7 @@
       <c r="A460" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B460" s="4">
+      <c r="B460" s="2">
         <v>0</v>
       </c>
       <c r="C460" s="3"/>
@@ -6776,7 +6767,7 @@
       <c r="A461" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B461" s="4">
+      <c r="B461" s="2">
         <v>1</v>
       </c>
       <c r="C461" s="3"/>
@@ -6785,7 +6776,7 @@
       <c r="A462" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B462" s="4">
+      <c r="B462" s="2">
         <v>0</v>
       </c>
       <c r="C462" s="3"/>
@@ -6794,7 +6785,7 @@
       <c r="A463" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B463" s="4">
+      <c r="B463" s="2">
         <v>1</v>
       </c>
       <c r="C463" s="3"/>
@@ -6803,7 +6794,7 @@
       <c r="A464" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B464" s="4">
+      <c r="B464" s="2">
         <v>1</v>
       </c>
       <c r="C464" s="3"/>
@@ -6812,7 +6803,7 @@
       <c r="A465" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B465" s="4">
+      <c r="B465" s="2">
         <v>1</v>
       </c>
       <c r="C465" s="3"/>
@@ -6821,7 +6812,7 @@
       <c r="A466" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B466" s="4">
+      <c r="B466" s="2">
         <v>0</v>
       </c>
       <c r="C466" s="3"/>
@@ -6830,7 +6821,7 @@
       <c r="A467" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B467" s="4">
+      <c r="B467" s="2">
         <v>1</v>
       </c>
       <c r="C467" s="3"/>
@@ -6839,7 +6830,7 @@
       <c r="A468" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B468" s="4">
+      <c r="B468" s="2">
         <v>0</v>
       </c>
       <c r="C468" s="3"/>
@@ -6848,7 +6839,7 @@
       <c r="A469" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B469" s="4">
+      <c r="B469" s="2">
         <v>0</v>
       </c>
       <c r="C469" s="3"/>
@@ -6857,7 +6848,7 @@
       <c r="A470" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B470" s="4">
+      <c r="B470" s="2">
         <v>0</v>
       </c>
       <c r="C470" s="3"/>
@@ -6866,7 +6857,7 @@
       <c r="A471" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B471" s="4">
+      <c r="B471" s="2">
         <v>1</v>
       </c>
       <c r="C471" s="3"/>
@@ -6875,7 +6866,7 @@
       <c r="A472" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B472" s="4">
+      <c r="B472" s="2">
         <v>2</v>
       </c>
       <c r="C472" s="3"/>
@@ -6884,7 +6875,7 @@
       <c r="A473" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B473" s="4">
+      <c r="B473" s="2">
         <v>0</v>
       </c>
       <c r="C473" s="3"/>
@@ -6893,7 +6884,7 @@
       <c r="A474" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B474" s="4">
+      <c r="B474" s="2">
         <v>0</v>
       </c>
       <c r="C474" s="3"/>
@@ -6902,7 +6893,7 @@
       <c r="A475" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B475" s="4">
+      <c r="B475" s="2">
         <v>1</v>
       </c>
       <c r="C475" s="3"/>
@@ -6911,7 +6902,7 @@
       <c r="A476" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B476" s="4">
+      <c r="B476" s="2">
         <v>1</v>
       </c>
       <c r="C476" s="3"/>
@@ -6920,7 +6911,7 @@
       <c r="A477" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B477" s="4">
+      <c r="B477" s="2">
         <v>0</v>
       </c>
       <c r="C477" s="3"/>
@@ -6929,7 +6920,7 @@
       <c r="A478" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B478" s="4">
+      <c r="B478" s="2">
         <v>0</v>
       </c>
       <c r="C478" s="3"/>
@@ -6938,7 +6929,7 @@
       <c r="A479" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B479" s="4">
+      <c r="B479" s="2">
         <v>1</v>
       </c>
       <c r="C479" s="3"/>
@@ -6947,7 +6938,7 @@
       <c r="A480" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B480" s="4">
+      <c r="B480" s="2">
         <v>1</v>
       </c>
       <c r="C480" s="3"/>
@@ -6956,7 +6947,7 @@
       <c r="A481" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B481" s="4">
+      <c r="B481" s="2">
         <v>2</v>
       </c>
       <c r="C481" s="3"/>
@@ -6965,7 +6956,7 @@
       <c r="A482" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B482" s="4">
+      <c r="B482" s="2">
         <v>2</v>
       </c>
       <c r="C482" s="3"/>
@@ -6974,7 +6965,7 @@
       <c r="A483" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B483" s="4">
+      <c r="B483" s="2">
         <v>0</v>
       </c>
       <c r="C483" s="3"/>
@@ -6983,7 +6974,7 @@
       <c r="A484" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B484" s="4">
+      <c r="B484" s="2">
         <v>1</v>
       </c>
       <c r="C484" s="3"/>
@@ -6992,7 +6983,7 @@
       <c r="A485" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B485" s="4">
+      <c r="B485" s="2">
         <v>1</v>
       </c>
       <c r="C485" s="3"/>
@@ -7001,7 +6992,7 @@
       <c r="A486" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B486" s="4">
+      <c r="B486" s="2">
         <v>2</v>
       </c>
       <c r="C486" s="3"/>
@@ -7010,7 +7001,7 @@
       <c r="A487" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B487" s="4">
+      <c r="B487" s="2">
         <v>1</v>
       </c>
       <c r="C487" s="3"/>
@@ -7019,7 +7010,7 @@
       <c r="A488" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B488" s="4">
+      <c r="B488" s="2">
         <v>1</v>
       </c>
       <c r="C488" s="3"/>
@@ -7028,7 +7019,7 @@
       <c r="A489" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B489" s="4">
+      <c r="B489" s="2">
         <v>1</v>
       </c>
       <c r="C489" s="3"/>
@@ -7037,7 +7028,7 @@
       <c r="A490" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B490" s="4">
+      <c r="B490" s="2">
         <v>1</v>
       </c>
       <c r="C490" s="3"/>
@@ -7046,7 +7037,7 @@
       <c r="A491" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B491" s="4">
+      <c r="B491" s="2">
         <v>1</v>
       </c>
       <c r="C491" s="3"/>
@@ -7055,7 +7046,7 @@
       <c r="A492" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B492" s="4">
+      <c r="B492" s="2">
         <v>0</v>
       </c>
       <c r="C492" s="3"/>
@@ -7064,7 +7055,7 @@
       <c r="A493" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B493" s="4">
+      <c r="B493" s="2">
         <v>0</v>
       </c>
       <c r="C493" s="3"/>
@@ -7073,7 +7064,7 @@
       <c r="A494" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B494" s="4">
+      <c r="B494" s="2">
         <v>2</v>
       </c>
       <c r="C494" s="3"/>
@@ -7082,7 +7073,7 @@
       <c r="A495" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B495" s="4">
+      <c r="B495" s="2">
         <v>2</v>
       </c>
       <c r="C495" s="3"/>
@@ -7091,7 +7082,7 @@
       <c r="A496" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B496" s="4">
+      <c r="B496" s="2">
         <v>1</v>
       </c>
       <c r="C496" s="3"/>
@@ -7100,7 +7091,7 @@
       <c r="A497" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B497" s="4">
+      <c r="B497" s="2">
         <v>2</v>
       </c>
       <c r="C497" s="3"/>
@@ -7109,7 +7100,7 @@
       <c r="A498" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B498" s="4">
+      <c r="B498" s="2">
         <v>0</v>
       </c>
       <c r="C498" s="3"/>
@@ -7118,7 +7109,7 @@
       <c r="A499" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B499" s="4">
+      <c r="B499" s="2">
         <v>0</v>
       </c>
       <c r="C499" s="3"/>
@@ -7127,7 +7118,7 @@
       <c r="A500" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B500" s="4">
+      <c r="B500" s="2">
         <v>1</v>
       </c>
       <c r="C500" s="3"/>
@@ -7136,7 +7127,7 @@
       <c r="A501" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B501" s="4">
+      <c r="B501" s="2">
         <v>0</v>
       </c>
       <c r="C501" s="3"/>
@@ -7145,7 +7136,7 @@
       <c r="A502" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B502" s="4">
+      <c r="B502" s="2">
         <v>0</v>
       </c>
       <c r="C502" s="3"/>
@@ -7154,7 +7145,7 @@
       <c r="A503" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="B503" s="4">
+      <c r="B503" s="2">
         <v>0</v>
       </c>
       <c r="C503" s="3"/>
@@ -7163,7 +7154,7 @@
       <c r="A504" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B504" s="4">
+      <c r="B504" s="2">
         <v>0</v>
       </c>
       <c r="C504" s="3"/>
@@ -7172,7 +7163,7 @@
       <c r="A505" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B505" s="4">
+      <c r="B505" s="2">
         <v>1</v>
       </c>
       <c r="C505" s="3"/>
@@ -7181,7 +7172,7 @@
       <c r="A506" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B506" s="4">
+      <c r="B506" s="2">
         <v>0</v>
       </c>
       <c r="C506" s="3"/>
@@ -7190,7 +7181,7 @@
       <c r="A507" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B507" s="4">
+      <c r="B507" s="2">
         <v>0</v>
       </c>
       <c r="C507" s="3"/>
@@ -7199,7 +7190,7 @@
       <c r="A508" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B508" s="4">
+      <c r="B508" s="2">
         <v>0</v>
       </c>
       <c r="C508" s="3"/>
@@ -7208,7 +7199,7 @@
       <c r="A509" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B509" s="4">
+      <c r="B509" s="2">
         <v>0</v>
       </c>
       <c r="C509" s="3"/>
@@ -7217,7 +7208,7 @@
       <c r="A510" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B510" s="4">
+      <c r="B510" s="2">
         <v>0</v>
       </c>
       <c r="C510" s="3"/>
@@ -7226,7 +7217,7 @@
       <c r="A511" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="B511" s="4">
+      <c r="B511" s="2">
         <v>0</v>
       </c>
       <c r="C511" s="3"/>
@@ -7235,7 +7226,7 @@
       <c r="A512" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B512" s="4">
+      <c r="B512" s="2">
         <v>0</v>
       </c>
       <c r="C512" s="3"/>
@@ -7244,7 +7235,7 @@
       <c r="A513" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B513" s="4">
+      <c r="B513" s="2">
         <v>0</v>
       </c>
       <c r="C513" s="3"/>
@@ -7253,7 +7244,7 @@
       <c r="A514" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B514" s="4">
+      <c r="B514" s="2">
         <v>0</v>
       </c>
       <c r="C514" s="3"/>
@@ -7262,7 +7253,7 @@
       <c r="A515" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B515" s="4">
+      <c r="B515" s="2">
         <v>1</v>
       </c>
       <c r="C515" s="3"/>
@@ -7271,7 +7262,7 @@
       <c r="A516" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B516" s="4">
+      <c r="B516" s="2">
         <v>1</v>
       </c>
       <c r="C516" s="3"/>
@@ -7280,7 +7271,7 @@
       <c r="A517" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B517" s="4">
+      <c r="B517" s="2">
         <v>0</v>
       </c>
       <c r="C517" s="3"/>
@@ -7289,7 +7280,7 @@
       <c r="A518" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B518" s="4">
+      <c r="B518" s="2">
         <v>0</v>
       </c>
       <c r="C518" s="3"/>
@@ -7298,7 +7289,7 @@
       <c r="A519" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B519" s="4">
+      <c r="B519" s="2">
         <v>0</v>
       </c>
       <c r="C519" s="3"/>
@@ -7307,7 +7298,7 @@
       <c r="A520" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B520" s="4">
+      <c r="B520" s="2">
         <v>0</v>
       </c>
       <c r="C520" s="3"/>
@@ -7316,7 +7307,7 @@
       <c r="A521" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B521" s="4">
+      <c r="B521" s="2">
         <v>1</v>
       </c>
       <c r="C521" s="3"/>
@@ -7325,7 +7316,7 @@
       <c r="A522" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B522" s="4">
+      <c r="B522" s="2">
         <v>0</v>
       </c>
       <c r="C522" s="3"/>
@@ -7334,7 +7325,7 @@
       <c r="A523" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B523" s="4">
+      <c r="B523" s="2">
         <v>0</v>
       </c>
       <c r="C523" s="3"/>
@@ -7343,7 +7334,7 @@
       <c r="A524" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="B524" s="4">
+      <c r="B524" s="2">
         <v>0</v>
       </c>
       <c r="C524" s="3"/>
@@ -7352,7 +7343,7 @@
       <c r="A525" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B525" s="4">
+      <c r="B525" s="2">
         <v>0</v>
       </c>
       <c r="C525" s="3"/>
@@ -7361,7 +7352,7 @@
       <c r="A526" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B526" s="4">
+      <c r="B526" s="2">
         <v>1</v>
       </c>
       <c r="C526" s="3"/>
@@ -7370,7 +7361,7 @@
       <c r="A527" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B527" s="4">
+      <c r="B527" s="2">
         <v>2</v>
       </c>
       <c r="C527" s="3"/>
@@ -7379,7 +7370,7 @@
       <c r="A528" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="B528" s="4">
+      <c r="B528" s="2">
         <v>0</v>
       </c>
       <c r="C528" s="3"/>
@@ -7388,7 +7379,7 @@
       <c r="A529" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="B529" s="4">
+      <c r="B529" s="2">
         <v>0</v>
       </c>
       <c r="C529" s="3"/>
@@ -7397,7 +7388,7 @@
       <c r="A530" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B530" s="4">
+      <c r="B530" s="2">
         <v>1</v>
       </c>
       <c r="C530" s="3"/>
@@ -7406,7 +7397,7 @@
       <c r="A531" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B531" s="4">
+      <c r="B531" s="2">
         <v>1</v>
       </c>
       <c r="C531" s="3"/>
@@ -7415,7 +7406,7 @@
       <c r="A532" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B532" s="4">
+      <c r="B532" s="2">
         <v>1</v>
       </c>
       <c r="C532" s="3"/>
@@ -7424,7 +7415,7 @@
       <c r="A533" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B533" s="4">
+      <c r="B533" s="2">
         <v>0</v>
       </c>
       <c r="C533" s="3"/>
@@ -7433,7 +7424,7 @@
       <c r="A534" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B534" s="4">
+      <c r="B534" s="2">
         <v>0</v>
       </c>
       <c r="C534" s="3"/>
@@ -7442,7 +7433,7 @@
       <c r="A535" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B535" s="4">
+      <c r="B535" s="2">
         <v>0</v>
       </c>
       <c r="C535" s="3"/>
@@ -7451,7 +7442,7 @@
       <c r="A536" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B536" s="4">
+      <c r="B536" s="2">
         <v>1</v>
       </c>
       <c r="C536" s="3"/>
@@ -7460,7 +7451,7 @@
       <c r="A537" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="B537" s="4">
+      <c r="B537" s="2">
         <v>1</v>
       </c>
       <c r="C537" s="3"/>
@@ -7469,7 +7460,7 @@
       <c r="A538" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B538" s="4">
+      <c r="B538" s="2">
         <v>0</v>
       </c>
       <c r="C538" s="3"/>
@@ -7478,7 +7469,7 @@
       <c r="A539" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B539" s="4">
+      <c r="B539" s="2">
         <v>0</v>
       </c>
       <c r="C539" s="3"/>
@@ -7487,7 +7478,7 @@
       <c r="A540" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B540" s="4">
+      <c r="B540" s="2">
         <v>0</v>
       </c>
       <c r="C540" s="3"/>
@@ -7496,7 +7487,7 @@
       <c r="A541" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B541" s="4">
+      <c r="B541" s="2">
         <v>0</v>
       </c>
       <c r="C541" s="3"/>
@@ -7505,7 +7496,7 @@
       <c r="A542" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B542" s="4">
+      <c r="B542" s="2">
         <v>0</v>
       </c>
       <c r="C542" s="3"/>
@@ -7514,7 +7505,7 @@
       <c r="A543" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B543" s="4">
+      <c r="B543" s="2">
         <v>0</v>
       </c>
       <c r="C543" s="3"/>
@@ -7523,7 +7514,7 @@
       <c r="A544" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B544" s="4">
+      <c r="B544" s="2">
         <v>0</v>
       </c>
       <c r="C544" s="3"/>
@@ -7532,7 +7523,7 @@
       <c r="A545" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B545" s="4">
+      <c r="B545" s="2">
         <v>0</v>
       </c>
       <c r="C545" s="3"/>
@@ -7541,7 +7532,7 @@
       <c r="A546" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B546" s="4">
+      <c r="B546" s="2">
         <v>0</v>
       </c>
       <c r="C546" s="3"/>
@@ -7550,7 +7541,7 @@
       <c r="A547" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B547" s="4">
+      <c r="B547" s="2">
         <v>0</v>
       </c>
       <c r="C547" s="3"/>
@@ -7559,7 +7550,7 @@
       <c r="A548" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B548" s="4">
+      <c r="B548" s="2">
         <v>1</v>
       </c>
       <c r="C548" s="3"/>
@@ -7568,7 +7559,7 @@
       <c r="A549" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B549" s="4">
+      <c r="B549" s="2">
         <v>1</v>
       </c>
       <c r="C549" s="3"/>
@@ -7577,7 +7568,7 @@
       <c r="A550" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B550" s="4">
+      <c r="B550" s="2">
         <v>0</v>
       </c>
       <c r="C550" s="3"/>
@@ -7586,7 +7577,7 @@
       <c r="A551" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B551" s="4">
+      <c r="B551" s="2">
         <v>1</v>
       </c>
       <c r="C551" s="3"/>
@@ -7595,7 +7586,7 @@
       <c r="A552" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B552" s="4">
+      <c r="B552" s="2">
         <v>0</v>
       </c>
       <c r="C552" s="3"/>
@@ -7604,7 +7595,7 @@
       <c r="A553" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B553" s="4">
+      <c r="B553" s="2">
         <v>0</v>
       </c>
       <c r="C553" s="3"/>
@@ -7613,8 +7604,8 @@
       <c r="A554" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B554" s="4">
-        <v>0</v>
+      <c r="B554" s="2">
+        <v>2</v>
       </c>
       <c r="C554" s="3"/>
     </row>
@@ -7622,8 +7613,8 @@
       <c r="A555" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B555" s="4">
-        <v>0</v>
+      <c r="B555" s="2">
+        <v>1</v>
       </c>
       <c r="C555" s="3"/>
     </row>
@@ -7631,8 +7622,8 @@
       <c r="A556" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="B556" s="4">
-        <v>1</v>
+      <c r="B556" s="2">
+        <v>2</v>
       </c>
       <c r="C556" s="3"/>
     </row>
@@ -7640,8 +7631,8 @@
       <c r="A557" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B557" s="4">
-        <v>2</v>
+      <c r="B557" s="2">
+        <v>0</v>
       </c>
       <c r="C557" s="3"/>
     </row>
@@ -7649,7 +7640,7 @@
       <c r="A558" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B558" s="4">
+      <c r="B558" s="2">
         <v>0</v>
       </c>
       <c r="C558" s="3"/>
@@ -7658,7 +7649,7 @@
       <c r="A559" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B559" s="4">
+      <c r="B559" s="2">
         <v>0</v>
       </c>
       <c r="C559" s="3"/>
@@ -7667,7 +7658,7 @@
       <c r="A560" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B560" s="4">
+      <c r="B560" s="2">
         <v>0</v>
       </c>
       <c r="C560" s="3"/>
@@ -7676,8 +7667,8 @@
       <c r="A561" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B561" s="4">
-        <v>0</v>
+      <c r="B561" s="2">
+        <v>1</v>
       </c>
       <c r="C561" s="3"/>
     </row>
@@ -7685,8 +7676,8 @@
       <c r="A562" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B562" s="4">
-        <v>0</v>
+      <c r="B562" s="2">
+        <v>1</v>
       </c>
       <c r="C562" s="3"/>
     </row>
@@ -7694,8 +7685,8 @@
       <c r="A563" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B563" s="4">
-        <v>1</v>
+      <c r="B563" s="2">
+        <v>2</v>
       </c>
       <c r="C563" s="3"/>
     </row>
@@ -7703,7 +7694,7 @@
       <c r="A564" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B564" s="4">
+      <c r="B564" s="2">
         <v>0</v>
       </c>
       <c r="C564" s="3"/>
@@ -7712,8 +7703,8 @@
       <c r="A565" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B565" s="4">
-        <v>1</v>
+      <c r="B565" s="2">
+        <v>2</v>
       </c>
       <c r="C565" s="3"/>
     </row>
@@ -7721,7 +7712,7 @@
       <c r="A566" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B566" s="4">
+      <c r="B566" s="2">
         <v>0</v>
       </c>
       <c r="C566" s="3"/>
@@ -7730,8 +7721,8 @@
       <c r="A567" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B567" s="4">
-        <v>0</v>
+      <c r="B567" s="2">
+        <v>1</v>
       </c>
       <c r="C567" s="3"/>
     </row>
@@ -7739,8 +7730,8 @@
       <c r="A568" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B568" s="4">
-        <v>1</v>
+      <c r="B568" s="2">
+        <v>2</v>
       </c>
       <c r="C568" s="3"/>
     </row>
@@ -7748,8 +7739,8 @@
       <c r="A569" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B569" s="4">
-        <v>1</v>
+      <c r="B569" s="2">
+        <v>2</v>
       </c>
       <c r="C569" s="3"/>
     </row>
@@ -7757,7 +7748,7 @@
       <c r="A570" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B570" s="4">
+      <c r="B570" s="2">
         <v>0</v>
       </c>
       <c r="C570" s="3"/>
@@ -7766,8 +7757,8 @@
       <c r="A571" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B571" s="4">
-        <v>1</v>
+      <c r="B571" s="2">
+        <v>2</v>
       </c>
       <c r="C571" s="3"/>
     </row>
@@ -7775,8 +7766,8 @@
       <c r="A572" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B572" s="4">
-        <v>1</v>
+      <c r="B572" s="2">
+        <v>2</v>
       </c>
       <c r="C572" s="3"/>
     </row>
@@ -7784,8 +7775,8 @@
       <c r="A573" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B573" s="4">
-        <v>0</v>
+      <c r="B573" s="2">
+        <v>2</v>
       </c>
       <c r="C573" s="3"/>
     </row>
@@ -7793,8 +7784,8 @@
       <c r="A574" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="B574" s="4">
-        <v>0</v>
+      <c r="B574" s="2">
+        <v>2</v>
       </c>
       <c r="C574" s="3"/>
     </row>
@@ -7802,8 +7793,8 @@
       <c r="A575" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B575" s="4">
-        <v>0</v>
+      <c r="B575" s="2">
+        <v>2</v>
       </c>
       <c r="C575" s="3"/>
     </row>
@@ -7811,8 +7802,8 @@
       <c r="A576" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B576" s="4">
-        <v>0</v>
+      <c r="B576" s="2">
+        <v>1</v>
       </c>
       <c r="C576" s="3"/>
     </row>
@@ -7820,8 +7811,8 @@
       <c r="A577" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B577" s="4">
-        <v>1</v>
+      <c r="B577" s="2">
+        <v>2</v>
       </c>
       <c r="C577" s="3"/>
     </row>
@@ -7829,8 +7820,8 @@
       <c r="A578" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B578" s="4">
-        <v>1</v>
+      <c r="B578" s="2">
+        <v>2</v>
       </c>
       <c r="C578" s="3"/>
     </row>
@@ -7838,8 +7829,8 @@
       <c r="A579" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B579" s="4">
-        <v>0</v>
+      <c r="B579" s="2">
+        <v>1</v>
       </c>
       <c r="C579" s="3"/>
     </row>
@@ -7847,8 +7838,8 @@
       <c r="A580" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B580" s="4">
-        <v>1</v>
+      <c r="B580" s="2">
+        <v>2</v>
       </c>
       <c r="C580" s="3"/>
     </row>
@@ -7856,7 +7847,7 @@
       <c r="A581" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="B581" s="4">
+      <c r="B581" s="2">
         <v>0</v>
       </c>
       <c r="C581" s="3"/>
@@ -7865,7 +7856,7 @@
       <c r="A582" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B582" s="4">
+      <c r="B582" s="2">
         <v>0</v>
       </c>
       <c r="C582" s="3"/>
@@ -7874,8 +7865,8 @@
       <c r="A583" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B583" s="4">
-        <v>0</v>
+      <c r="B583" s="2">
+        <v>1</v>
       </c>
       <c r="C583" s="3"/>
     </row>
@@ -7883,8 +7874,8 @@
       <c r="A584" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B584" s="4">
-        <v>0</v>
+      <c r="B584" s="2">
+        <v>1</v>
       </c>
       <c r="C584" s="3"/>
     </row>
@@ -7892,7 +7883,7 @@
       <c r="A585" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B585" s="4">
+      <c r="B585" s="2">
         <v>0</v>
       </c>
       <c r="C585" s="3"/>
@@ -7901,7 +7892,7 @@
       <c r="A586" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="B586" s="4">
+      <c r="B586" s="2">
         <v>2</v>
       </c>
       <c r="C586" s="3"/>
@@ -7910,7 +7901,7 @@
       <c r="A587" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B587" s="4">
+      <c r="B587" s="2">
         <v>0</v>
       </c>
       <c r="C587" s="3"/>
@@ -7919,7 +7910,7 @@
       <c r="A588" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B588" s="4">
+      <c r="B588" s="2">
         <v>0</v>
       </c>
       <c r="C588" s="3"/>
@@ -7928,8 +7919,8 @@
       <c r="A589" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B589" s="4">
-        <v>0</v>
+      <c r="B589" s="2">
+        <v>1</v>
       </c>
       <c r="C589" s="3"/>
     </row>
@@ -7937,8 +7928,8 @@
       <c r="A590" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B590" s="4">
-        <v>0</v>
+      <c r="B590" s="2">
+        <v>2</v>
       </c>
       <c r="C590" s="3"/>
     </row>
@@ -7946,8 +7937,8 @@
       <c r="A591" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="B591" s="4">
-        <v>0</v>
+      <c r="B591" s="2">
+        <v>2</v>
       </c>
       <c r="C591" s="3"/>
     </row>
@@ -7955,7 +7946,7 @@
       <c r="A592" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B592" s="4">
+      <c r="B592" s="2">
         <v>0</v>
       </c>
       <c r="C592" s="3"/>
@@ -7964,8 +7955,8 @@
       <c r="A593" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B593" s="4">
-        <v>0</v>
+      <c r="B593" s="2">
+        <v>1</v>
       </c>
       <c r="C593" s="3"/>
     </row>
@@ -7973,7 +7964,7 @@
       <c r="A594" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="B594" s="4">
+      <c r="B594" s="2">
         <v>0</v>
       </c>
       <c r="C594" s="3"/>
@@ -7982,8 +7973,8 @@
       <c r="A595" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="B595" s="4">
-        <v>2</v>
+      <c r="B595" s="2">
+        <v>0</v>
       </c>
       <c r="C595" s="3"/>
     </row>
@@ -7991,7 +7982,7 @@
       <c r="A596" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B596" s="4">
+      <c r="B596" s="2">
         <v>0</v>
       </c>
       <c r="C596" s="3"/>
@@ -8000,8 +7991,8 @@
       <c r="A597" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="B597" s="4">
-        <v>0</v>
+      <c r="B597" s="2">
+        <v>1</v>
       </c>
       <c r="C597" s="3"/>
     </row>
@@ -8009,8 +8000,8 @@
       <c r="A598" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B598" s="4">
-        <v>0</v>
+      <c r="B598" s="2">
+        <v>1</v>
       </c>
       <c r="C598" s="3"/>
     </row>
@@ -8018,7 +8009,7 @@
       <c r="A599" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B599" s="4">
+      <c r="B599" s="2">
         <v>0</v>
       </c>
       <c r="C599" s="3"/>
@@ -8027,7 +8018,7 @@
       <c r="A600" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B600" s="4">
+      <c r="B600" s="2">
         <v>0</v>
       </c>
       <c r="C600" s="3"/>
@@ -8036,7 +8027,7 @@
       <c r="A601" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="B601" s="4">
+      <c r="B601" s="2">
         <v>2</v>
       </c>
       <c r="C601" s="3"/>
@@ -8045,7 +8036,7 @@
       <c r="A602" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B602" s="4">
+      <c r="B602" s="2">
         <v>0</v>
       </c>
       <c r="C602" s="3"/>
@@ -8054,7 +8045,7 @@
       <c r="A603" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="B603" s="4">
+      <c r="B603" s="2">
         <v>2</v>
       </c>
       <c r="C603" s="3"/>
@@ -8063,7 +8054,7 @@
       <c r="A604" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="B604" s="4">
+      <c r="B604" s="2">
         <v>0</v>
       </c>
       <c r="C604" s="3"/>
@@ -8072,8 +8063,8 @@
       <c r="A605" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B605" s="4">
-        <v>0</v>
+      <c r="B605" s="2">
+        <v>2</v>
       </c>
       <c r="C605" s="3"/>
     </row>
@@ -8081,8 +8072,8 @@
       <c r="A606" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="B606" s="4">
-        <v>0</v>
+      <c r="B606" s="2">
+        <v>1</v>
       </c>
       <c r="C606" s="3"/>
     </row>
@@ -8090,7 +8081,7 @@
       <c r="A607" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B607" s="4">
+      <c r="B607" s="2">
         <v>0</v>
       </c>
       <c r="C607" s="3"/>
@@ -8099,8 +8090,8 @@
       <c r="A608" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B608" s="4">
-        <v>0</v>
+      <c r="B608" s="2">
+        <v>1</v>
       </c>
       <c r="C608" s="3"/>
     </row>
@@ -8108,8 +8099,8 @@
       <c r="A609" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="B609" s="4">
-        <v>0</v>
+      <c r="B609" s="2">
+        <v>1</v>
       </c>
       <c r="C609" s="3"/>
     </row>
@@ -8117,7 +8108,7 @@
       <c r="A610" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B610" s="4">
+      <c r="B610" s="2">
         <v>2</v>
       </c>
       <c r="C610" s="3"/>
@@ -8126,7 +8117,7 @@
       <c r="A611" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B611" s="4">
+      <c r="B611" s="2">
         <v>0</v>
       </c>
       <c r="C611" s="3"/>
@@ -8135,8 +8126,8 @@
       <c r="A612" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="B612" s="4">
-        <v>0</v>
+      <c r="B612" s="2">
+        <v>1</v>
       </c>
       <c r="C612" s="3"/>
     </row>
@@ -8144,7 +8135,7 @@
       <c r="A613" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="B613" s="4">
+      <c r="B613" s="2">
         <v>0</v>
       </c>
       <c r="C613" s="3"/>
@@ -8153,7 +8144,7 @@
       <c r="A614" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="B614" s="4">
+      <c r="B614" s="2">
         <v>0</v>
       </c>
       <c r="C614" s="3"/>
@@ -8162,7 +8153,7 @@
       <c r="A615" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B615" s="4">
+      <c r="B615" s="2">
         <v>2</v>
       </c>
       <c r="C615" s="3"/>
@@ -8171,8 +8162,8 @@
       <c r="A616" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B616" s="4">
-        <v>0</v>
+      <c r="B616" s="2">
+        <v>1</v>
       </c>
       <c r="C616" s="3"/>
     </row>
@@ -8180,7 +8171,7 @@
       <c r="A617" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="B617" s="4">
+      <c r="B617" s="2">
         <v>0</v>
       </c>
       <c r="C617" s="3"/>
@@ -8189,7 +8180,7 @@
       <c r="A618" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="B618" s="4">
+      <c r="B618" s="2">
         <v>0</v>
       </c>
       <c r="C618" s="3"/>
@@ -8198,7 +8189,7 @@
       <c r="A619" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="B619" s="4">
+      <c r="B619" s="2">
         <v>0</v>
       </c>
       <c r="C619" s="3"/>
@@ -8207,7 +8198,7 @@
       <c r="A620" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B620" s="4">
+      <c r="B620" s="2">
         <v>0</v>
       </c>
       <c r="C620" s="3"/>
@@ -8216,8 +8207,8 @@
       <c r="A621" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="B621" s="4">
-        <v>0</v>
+      <c r="B621" s="2">
+        <v>1</v>
       </c>
       <c r="C621" s="3"/>
     </row>
@@ -8225,7 +8216,7 @@
       <c r="A622" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B622" s="4">
+      <c r="B622" s="2">
         <v>2</v>
       </c>
       <c r="C622" s="3"/>
@@ -8234,7 +8225,7 @@
       <c r="A623" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="B623" s="4">
+      <c r="B623" s="2">
         <v>0</v>
       </c>
       <c r="C623" s="3"/>
@@ -8243,8 +8234,8 @@
       <c r="A624" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B624" s="4">
-        <v>0</v>
+      <c r="B624" s="2">
+        <v>1</v>
       </c>
       <c r="C624" s="3"/>
     </row>
@@ -8252,8 +8243,8 @@
       <c r="A625" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="B625" s="4">
-        <v>0</v>
+      <c r="B625" s="2">
+        <v>1</v>
       </c>
       <c r="C625" s="3"/>
     </row>
@@ -8261,7 +8252,7 @@
       <c r="A626" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="B626" s="4">
+      <c r="B626" s="2">
         <v>2</v>
       </c>
       <c r="C626" s="3"/>
@@ -8270,7 +8261,7 @@
       <c r="A627" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B627" s="4">
+      <c r="B627" s="2">
         <v>2</v>
       </c>
       <c r="C627" s="3"/>
@@ -8279,8 +8270,8 @@
       <c r="A628" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B628" s="4">
-        <v>0</v>
+      <c r="B628" s="2">
+        <v>1</v>
       </c>
       <c r="C628" s="3"/>
     </row>
@@ -8288,8 +8279,8 @@
       <c r="A629" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B629" s="4">
-        <v>0</v>
+      <c r="B629" s="2">
+        <v>1</v>
       </c>
       <c r="C629" s="3"/>
     </row>
@@ -8297,7 +8288,7 @@
       <c r="A630" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B630" s="4">
+      <c r="B630" s="2">
         <v>0</v>
       </c>
       <c r="C630" s="3"/>
@@ -8306,8 +8297,8 @@
       <c r="A631" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B631" s="4">
-        <v>0</v>
+      <c r="B631" s="2">
+        <v>1</v>
       </c>
       <c r="C631" s="3"/>
     </row>
@@ -8315,7 +8306,7 @@
       <c r="A632" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B632" s="4">
+      <c r="B632" s="2">
         <v>0</v>
       </c>
       <c r="C632" s="3"/>
@@ -8324,8 +8315,8 @@
       <c r="A633" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B633" s="4">
-        <v>0</v>
+      <c r="B633" s="2">
+        <v>2</v>
       </c>
       <c r="C633" s="3"/>
     </row>
@@ -8333,8 +8324,8 @@
       <c r="A634" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="B634" s="4">
-        <v>0</v>
+      <c r="B634" s="2">
+        <v>1</v>
       </c>
       <c r="C634" s="3"/>
     </row>
@@ -8342,7 +8333,7 @@
       <c r="A635" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="B635" s="4">
+      <c r="B635" s="2">
         <v>0</v>
       </c>
       <c r="C635" s="3"/>
@@ -8351,7 +8342,7 @@
       <c r="A636" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B636" s="4">
+      <c r="B636" s="2">
         <v>0</v>
       </c>
       <c r="C636" s="3"/>
@@ -8360,7 +8351,7 @@
       <c r="A637" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="B637" s="4">
+      <c r="B637" s="2">
         <v>2</v>
       </c>
       <c r="C637" s="3"/>
@@ -8369,8 +8360,8 @@
       <c r="A638" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B638" s="4">
-        <v>0</v>
+      <c r="B638" s="2">
+        <v>1</v>
       </c>
       <c r="C638" s="3"/>
     </row>
@@ -8378,7 +8369,7 @@
       <c r="A639" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B639" s="4">
+      <c r="B639" s="2">
         <v>0</v>
       </c>
       <c r="C639" s="3"/>
@@ -8387,8 +8378,8 @@
       <c r="A640" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="B640" s="4">
-        <v>0</v>
+      <c r="B640" s="2">
+        <v>1</v>
       </c>
       <c r="C640" s="3"/>
     </row>
@@ -8396,7 +8387,7 @@
       <c r="A641" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="B641" s="4">
+      <c r="B641" s="2">
         <v>2</v>
       </c>
       <c r="C641" s="3"/>
@@ -8405,7 +8396,7 @@
       <c r="A642" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="B642" s="4">
+      <c r="B642" s="2">
         <v>1</v>
       </c>
       <c r="C642" s="3"/>
@@ -8414,7 +8405,7 @@
       <c r="A643" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B643" s="4">
+      <c r="B643" s="2">
         <v>2</v>
       </c>
       <c r="C643" s="3"/>
@@ -8423,7 +8414,7 @@
       <c r="A644" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B644" s="4">
+      <c r="B644" s="2">
         <v>1</v>
       </c>
       <c r="C644" s="3"/>
@@ -8432,7 +8423,7 @@
       <c r="A645" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B645" s="4">
+      <c r="B645" s="2">
         <v>1</v>
       </c>
       <c r="C645" s="3"/>
@@ -8441,7 +8432,7 @@
       <c r="A646" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B646" s="4">
+      <c r="B646" s="2">
         <v>2</v>
       </c>
       <c r="C646" s="3"/>
@@ -8450,7 +8441,7 @@
       <c r="A647" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="B647" s="4">
+      <c r="B647" s="2">
         <v>0</v>
       </c>
       <c r="C647" s="3"/>
@@ -8459,7 +8450,7 @@
       <c r="A648" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B648" s="4">
+      <c r="B648" s="2">
         <v>0</v>
       </c>
       <c r="C648" s="3"/>
@@ -8468,7 +8459,7 @@
       <c r="A649" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B649" s="4">
+      <c r="B649" s="2">
         <v>1</v>
       </c>
       <c r="C649" s="3"/>
@@ -8477,7 +8468,7 @@
       <c r="A650" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="B650" s="4">
+      <c r="B650" s="2">
         <v>2</v>
       </c>
       <c r="C650" s="3"/>
@@ -8486,7 +8477,7 @@
       <c r="A651" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B651" s="4">
+      <c r="B651" s="2">
         <v>2</v>
       </c>
       <c r="C651" s="3"/>
@@ -8495,7 +8486,7 @@
       <c r="A652" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B652" s="4">
+      <c r="B652" s="2">
         <v>1</v>
       </c>
       <c r="C652" s="3"/>
@@ -8504,7 +8495,7 @@
       <c r="A653" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="B653" s="4">
+      <c r="B653" s="2">
         <v>2</v>
       </c>
       <c r="C653" s="3"/>
@@ -8513,7 +8504,7 @@
       <c r="A654" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B654" s="4">
+      <c r="B654" s="2">
         <v>2</v>
       </c>
       <c r="C654" s="3"/>
@@ -8522,7 +8513,7 @@
       <c r="A655" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B655" s="4">
+      <c r="B655" s="2">
         <v>1</v>
       </c>
       <c r="C655" s="3"/>
@@ -8531,7 +8522,7 @@
       <c r="A656" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B656" s="4">
+      <c r="B656" s="2">
         <v>1</v>
       </c>
       <c r="C656" s="3"/>
@@ -8540,7 +8531,7 @@
       <c r="A657" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="B657" s="4">
+      <c r="B657" s="2">
         <v>2</v>
       </c>
       <c r="C657" s="3"/>
@@ -8549,7 +8540,7 @@
       <c r="A658" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="B658" s="4">
+      <c r="B658" s="2">
         <v>1</v>
       </c>
       <c r="C658" s="3"/>
@@ -8558,7 +8549,7 @@
       <c r="A659" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B659" s="4">
+      <c r="B659" s="2">
         <v>1</v>
       </c>
       <c r="C659" s="3"/>
@@ -8567,7 +8558,7 @@
       <c r="A660" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="B660" s="4">
+      <c r="B660" s="2">
         <v>1</v>
       </c>
       <c r="C660" s="3"/>
@@ -8576,7 +8567,7 @@
       <c r="A661" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B661" s="4">
+      <c r="B661" s="2">
         <v>0</v>
       </c>
       <c r="C661" s="3"/>
@@ -8585,7 +8576,7 @@
       <c r="A662" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="B662" s="4">
+      <c r="B662" s="2">
         <v>2</v>
       </c>
       <c r="C662" s="3"/>
@@ -8594,7 +8585,7 @@
       <c r="A663" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B663" s="4">
+      <c r="B663" s="2">
         <v>0</v>
       </c>
       <c r="C663" s="3"/>
@@ -8603,7 +8594,7 @@
       <c r="A664" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="B664" s="4">
+      <c r="B664" s="2">
         <v>2</v>
       </c>
       <c r="C664" s="3"/>
@@ -8612,7 +8603,7 @@
       <c r="A665" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="B665" s="4">
+      <c r="B665" s="2">
         <v>0</v>
       </c>
       <c r="C665" s="3"/>
@@ -8621,7 +8612,7 @@
       <c r="A666" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B666" s="4">
+      <c r="B666" s="2">
         <v>2</v>
       </c>
       <c r="C666" s="3"/>
@@ -8630,7 +8621,7 @@
       <c r="A667" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="B667" s="4">
+      <c r="B667" s="2">
         <v>0</v>
       </c>
       <c r="C667" s="3"/>
@@ -8639,7 +8630,7 @@
       <c r="A668" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="B668" s="4">
+      <c r="B668" s="2">
         <v>0</v>
       </c>
       <c r="C668" s="3"/>
@@ -8648,7 +8639,7 @@
       <c r="A669" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="B669" s="4">
+      <c r="B669" s="2">
         <v>0</v>
       </c>
       <c r="C669" s="3"/>
@@ -8657,7 +8648,7 @@
       <c r="A670" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="B670" s="4">
+      <c r="B670" s="2">
         <v>0</v>
       </c>
       <c r="C670" s="3"/>
@@ -8666,7 +8657,7 @@
       <c r="A671" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B671" s="4">
+      <c r="B671" s="2">
         <v>1</v>
       </c>
       <c r="C671" s="3"/>
@@ -8675,7 +8666,7 @@
       <c r="A672" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="B672" s="4">
+      <c r="B672" s="2">
         <v>1</v>
       </c>
       <c r="C672" s="3"/>
@@ -8684,7 +8675,7 @@
       <c r="A673" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B673" s="4">
+      <c r="B673" s="2">
         <v>0</v>
       </c>
       <c r="C673" s="3"/>
@@ -8693,7 +8684,7 @@
       <c r="A674" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="B674" s="4">
+      <c r="B674" s="2">
         <v>1</v>
       </c>
       <c r="C674" s="3"/>
@@ -8702,7 +8693,7 @@
       <c r="A675" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="B675" s="4">
+      <c r="B675" s="2">
         <v>1</v>
       </c>
       <c r="C675" s="3"/>
@@ -8711,7 +8702,7 @@
       <c r="A676" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="B676" s="4">
+      <c r="B676" s="2">
         <v>1</v>
       </c>
       <c r="C676" s="3"/>
@@ -8720,7 +8711,7 @@
       <c r="A677" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B677" s="4">
+      <c r="B677" s="2">
         <v>1</v>
       </c>
       <c r="C677" s="3"/>
@@ -8729,7 +8720,7 @@
       <c r="A678" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="B678" s="4">
+      <c r="B678" s="2">
         <v>1</v>
       </c>
       <c r="C678" s="3"/>
@@ -8738,7 +8729,7 @@
       <c r="A679" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="B679" s="4">
+      <c r="B679" s="2">
         <v>2</v>
       </c>
       <c r="C679" s="3"/>
@@ -8747,7 +8738,7 @@
       <c r="A680" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B680" s="4">
+      <c r="B680" s="2">
         <v>0</v>
       </c>
       <c r="C680" s="3"/>
@@ -8756,7 +8747,7 @@
       <c r="A681" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="B681" s="4">
+      <c r="B681" s="2">
         <v>0</v>
       </c>
       <c r="C681" s="3"/>
@@ -8765,7 +8756,7 @@
       <c r="A682" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="B682" s="4">
+      <c r="B682" s="2">
         <v>2</v>
       </c>
       <c r="C682" s="3"/>
@@ -8774,7 +8765,7 @@
       <c r="A683" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="B683" s="4">
+      <c r="B683" s="2">
         <v>2</v>
       </c>
       <c r="C683" s="3"/>
@@ -8783,7 +8774,7 @@
       <c r="A684" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B684" s="4">
+      <c r="B684" s="2">
         <v>0</v>
       </c>
       <c r="C684" s="3"/>
@@ -8792,7 +8783,7 @@
       <c r="A685" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B685" s="4">
+      <c r="B685" s="2">
         <v>2</v>
       </c>
       <c r="C685" s="3"/>
@@ -8801,7 +8792,7 @@
       <c r="A686" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="B686" s="4">
+      <c r="B686" s="2">
         <v>0</v>
       </c>
       <c r="C686" s="3"/>
@@ -8810,7 +8801,7 @@
       <c r="A687" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="B687" s="4">
+      <c r="B687" s="2">
         <v>1</v>
       </c>
       <c r="C687" s="3"/>
@@ -8819,7 +8810,7 @@
       <c r="A688" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B688" s="4">
+      <c r="B688" s="2">
         <v>2</v>
       </c>
       <c r="C688" s="3"/>
@@ -8828,7 +8819,7 @@
       <c r="A689" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="B689" s="4">
+      <c r="B689" s="2">
         <v>1</v>
       </c>
       <c r="C689" s="3"/>
@@ -8837,7 +8828,7 @@
       <c r="A690" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="B690" s="4">
+      <c r="B690" s="2">
         <v>1</v>
       </c>
       <c r="C690" s="3"/>
@@ -8846,7 +8837,7 @@
       <c r="A691" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="B691" s="4">
+      <c r="B691" s="2">
         <v>2</v>
       </c>
       <c r="C691" s="3"/>
@@ -8855,7 +8846,7 @@
       <c r="A692" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B692" s="4">
+      <c r="B692" s="2">
         <v>2</v>
       </c>
       <c r="C692" s="3"/>
@@ -8864,7 +8855,7 @@
       <c r="A693" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="B693" s="4">
+      <c r="B693" s="2">
         <v>1</v>
       </c>
       <c r="C693" s="3"/>
@@ -8873,7 +8864,7 @@
       <c r="A694" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="B694" s="4">
+      <c r="B694" s="2">
         <v>2</v>
       </c>
       <c r="C694" s="3"/>
@@ -8882,7 +8873,7 @@
       <c r="A695" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B695" s="4">
+      <c r="B695" s="2">
         <v>1</v>
       </c>
       <c r="C695" s="3"/>
@@ -8891,7 +8882,7 @@
       <c r="A696" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B696" s="4">
+      <c r="B696" s="2">
         <v>1</v>
       </c>
       <c r="C696" s="3"/>
@@ -8900,7 +8891,7 @@
       <c r="A697" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="B697" s="4">
+      <c r="B697" s="2">
         <v>1</v>
       </c>
       <c r="C697" s="3"/>
@@ -8909,7 +8900,7 @@
       <c r="A698" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B698" s="4">
+      <c r="B698" s="2">
         <v>1</v>
       </c>
       <c r="C698" s="3"/>
@@ -8918,7 +8909,7 @@
       <c r="A699" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B699" s="4">
+      <c r="B699" s="2">
         <v>1</v>
       </c>
       <c r="C699" s="3"/>
@@ -8927,7 +8918,7 @@
       <c r="A700" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="B700" s="4">
+      <c r="B700" s="2">
         <v>1</v>
       </c>
       <c r="C700" s="3"/>
@@ -8936,7 +8927,7 @@
       <c r="A701" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B701" s="4">
+      <c r="B701" s="2">
         <v>2</v>
       </c>
       <c r="C701" s="3"/>
@@ -8945,7 +8936,7 @@
       <c r="A702" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="B702" s="4">
+      <c r="B702" s="2">
         <v>1</v>
       </c>
       <c r="C702" s="3"/>
@@ -8954,7 +8945,7 @@
       <c r="A703" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="B703" s="4">
+      <c r="B703" s="2">
         <v>1</v>
       </c>
       <c r="C703" s="3"/>
@@ -8963,7 +8954,7 @@
       <c r="A704" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B704" s="4">
+      <c r="B704" s="2">
         <v>1</v>
       </c>
       <c r="C704" s="3"/>
@@ -8972,7 +8963,7 @@
       <c r="A705" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B705" s="4">
+      <c r="B705" s="2">
         <v>1</v>
       </c>
       <c r="C705" s="3"/>
@@ -8981,7 +8972,7 @@
       <c r="A706" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="B706" s="4">
+      <c r="B706" s="2">
         <v>2</v>
       </c>
       <c r="C706" s="3"/>
@@ -8990,7 +8981,7 @@
       <c r="A707" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B707" s="4">
+      <c r="B707" s="2">
         <v>1</v>
       </c>
       <c r="C707" s="3"/>
@@ -8999,7 +8990,7 @@
       <c r="A708" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="B708" s="4">
+      <c r="B708" s="2">
         <v>0</v>
       </c>
       <c r="C708" s="3"/>
@@ -9008,7 +8999,7 @@
       <c r="A709" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="B709" s="4">
+      <c r="B709" s="2">
         <v>0</v>
       </c>
       <c r="C709" s="3"/>
@@ -9017,7 +9008,7 @@
       <c r="A710" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="B710" s="4">
+      <c r="B710" s="2">
         <v>1</v>
       </c>
       <c r="C710" s="3"/>
@@ -9026,7 +9017,7 @@
       <c r="A711" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B711" s="4">
+      <c r="B711" s="2">
         <v>1</v>
       </c>
       <c r="C711" s="3"/>
@@ -9035,7 +9026,7 @@
       <c r="A712" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B712" s="4">
+      <c r="B712" s="2">
         <v>2</v>
       </c>
       <c r="C712" s="3"/>
@@ -9044,7 +9035,7 @@
       <c r="A713" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="B713" s="4">
+      <c r="B713" s="2">
         <v>1</v>
       </c>
       <c r="C713" s="3"/>
@@ -9053,7 +9044,7 @@
       <c r="A714" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="B714" s="4">
+      <c r="B714" s="2">
         <v>1</v>
       </c>
       <c r="C714" s="3"/>
@@ -9062,7 +9053,7 @@
       <c r="A715" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="B715" s="4">
+      <c r="B715" s="2">
         <v>1</v>
       </c>
       <c r="C715" s="3"/>
@@ -9071,7 +9062,7 @@
       <c r="A716" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="B716" s="4">
+      <c r="B716" s="2">
         <v>1</v>
       </c>
       <c r="C716" s="3"/>
@@ -9080,7 +9071,7 @@
       <c r="A717" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="B717" s="4">
+      <c r="B717" s="2">
         <v>2</v>
       </c>
       <c r="C717" s="3"/>
@@ -9089,7 +9080,7 @@
       <c r="A718" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B718" s="4">
+      <c r="B718" s="2">
         <v>2</v>
       </c>
       <c r="C718" s="3"/>
@@ -9098,7 +9089,7 @@
       <c r="A719" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B719" s="4">
+      <c r="B719" s="2">
         <v>2</v>
       </c>
       <c r="C719" s="3"/>
@@ -9107,7 +9098,7 @@
       <c r="A720" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="B720" s="4">
+      <c r="B720" s="2">
         <v>1</v>
       </c>
       <c r="C720" s="3"/>
@@ -9116,7 +9107,7 @@
       <c r="A721" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B721" s="4">
+      <c r="B721" s="2">
         <v>1</v>
       </c>
       <c r="C721" s="3"/>
@@ -9125,7 +9116,7 @@
       <c r="A722" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B722" s="4">
+      <c r="B722" s="2">
         <v>1</v>
       </c>
       <c r="C722" s="3"/>
@@ -9134,7 +9125,7 @@
       <c r="A723" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="B723" s="4">
+      <c r="B723" s="2">
         <v>0</v>
       </c>
       <c r="C723" s="3"/>
@@ -9143,7 +9134,7 @@
       <c r="A724" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B724" s="4">
+      <c r="B724" s="2">
         <v>2</v>
       </c>
       <c r="C724" s="3"/>
@@ -9152,7 +9143,7 @@
       <c r="A725" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B725" s="4">
+      <c r="B725" s="2">
         <v>1</v>
       </c>
       <c r="C725" s="3"/>
@@ -9161,7 +9152,7 @@
       <c r="A726" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B726" s="4">
+      <c r="B726" s="2">
         <v>1</v>
       </c>
       <c r="C726" s="3"/>
@@ -9170,7 +9161,7 @@
       <c r="A727" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B727" s="4">
+      <c r="B727" s="2">
         <v>1</v>
       </c>
       <c r="C727" s="3"/>
@@ -9179,7 +9170,7 @@
       <c r="A728" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="B728" s="4">
+      <c r="B728" s="2">
         <v>1</v>
       </c>
       <c r="C728" s="3"/>
@@ -9188,7 +9179,7 @@
       <c r="A729" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="B729" s="4">
+      <c r="B729" s="2">
         <v>1</v>
       </c>
       <c r="C729" s="3"/>
@@ -9197,7 +9188,7 @@
       <c r="A730" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B730" s="4">
+      <c r="B730" s="2">
         <v>2</v>
       </c>
       <c r="C730" s="3"/>
@@ -9206,7 +9197,7 @@
       <c r="A731" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="B731" s="4">
+      <c r="B731" s="2">
         <v>1</v>
       </c>
       <c r="C731" s="3"/>
@@ -9215,7 +9206,7 @@
       <c r="A732" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="B732" s="4">
+      <c r="B732" s="2">
         <v>2</v>
       </c>
       <c r="C732" s="3"/>
@@ -9224,7 +9215,7 @@
       <c r="A733" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="B733" s="4">
+      <c r="B733" s="2">
         <v>2</v>
       </c>
       <c r="C733" s="3"/>
@@ -9233,7 +9224,7 @@
       <c r="A734" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="B734" s="4">
+      <c r="B734" s="2">
         <v>1</v>
       </c>
       <c r="C734" s="3"/>
@@ -9242,7 +9233,7 @@
       <c r="A735" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B735" s="4">
+      <c r="B735" s="2">
         <v>1</v>
       </c>
       <c r="C735" s="3"/>
@@ -9251,7 +9242,7 @@
       <c r="A736" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="B736" s="4">
+      <c r="B736" s="2">
         <v>1</v>
       </c>
       <c r="C736" s="3"/>
@@ -9260,7 +9251,7 @@
       <c r="A737" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="B737" s="4">
+      <c r="B737" s="2">
         <v>1</v>
       </c>
       <c r="C737" s="3"/>
@@ -9269,7 +9260,7 @@
       <c r="A738" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="B738" s="4">
+      <c r="B738" s="2">
         <v>1</v>
       </c>
       <c r="C738" s="3"/>
@@ -9278,7 +9269,7 @@
       <c r="A739" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B739" s="4">
+      <c r="B739" s="2">
         <v>2</v>
       </c>
       <c r="C739" s="3"/>
@@ -9287,7 +9278,7 @@
       <c r="A740" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="B740" s="4">
+      <c r="B740" s="2">
         <v>2</v>
       </c>
       <c r="C740" s="3"/>
@@ -9296,7 +9287,7 @@
       <c r="A741" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B741" s="4">
+      <c r="B741" s="2">
         <v>2</v>
       </c>
       <c r="C741" s="3"/>
@@ -9305,7 +9296,7 @@
       <c r="A742" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="B742" s="4">
+      <c r="B742" s="2">
         <v>2</v>
       </c>
       <c r="C742" s="3"/>
@@ -9314,7 +9305,7 @@
       <c r="A743" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="B743" s="4">
+      <c r="B743" s="2">
         <v>1</v>
       </c>
       <c r="C743" s="3"/>
@@ -9323,7 +9314,7 @@
       <c r="A744" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B744" s="4">
+      <c r="B744" s="2">
         <v>2</v>
       </c>
       <c r="C744" s="3"/>
@@ -9332,7 +9323,7 @@
       <c r="A745" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="B745" s="4">
+      <c r="B745" s="2">
         <v>1</v>
       </c>
       <c r="C745" s="3"/>
@@ -9341,7 +9332,7 @@
       <c r="A746" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B746" s="4">
+      <c r="B746" s="2">
         <v>1</v>
       </c>
       <c r="C746" s="3"/>

--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -6912,7 +6912,7 @@
         <v>471</v>
       </c>
       <c r="B477" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C477" s="3"/>
     </row>
@@ -6921,7 +6921,7 @@
         <v>472</v>
       </c>
       <c r="B478" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C478" s="3"/>
     </row>
@@ -7038,7 +7038,7 @@
         <v>485</v>
       </c>
       <c r="B491" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C491" s="3"/>
     </row>
@@ -7083,7 +7083,7 @@
         <v>490</v>
       </c>
       <c r="B496" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" s="3"/>
     </row>
@@ -7164,7 +7164,7 @@
         <v>499</v>
       </c>
       <c r="B505" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C505" s="3"/>
     </row>
@@ -7173,7 +7173,7 @@
         <v>500</v>
       </c>
       <c r="B506" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" s="3"/>
     </row>
@@ -7182,7 +7182,7 @@
         <v>501</v>
       </c>
       <c r="B507" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C507" s="3"/>
     </row>
@@ -7227,7 +7227,7 @@
         <v>506</v>
       </c>
       <c r="B512" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" s="3"/>
     </row>
@@ -7236,7 +7236,7 @@
         <v>507</v>
       </c>
       <c r="B513" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C513" s="3"/>
     </row>
@@ -7245,7 +7245,7 @@
         <v>508</v>
       </c>
       <c r="B514" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" s="3"/>
     </row>
@@ -7254,7 +7254,7 @@
         <v>509</v>
       </c>
       <c r="B515" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C515" s="3"/>
     </row>
@@ -7263,7 +7263,7 @@
         <v>510</v>
       </c>
       <c r="B516" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C516" s="3"/>
     </row>
@@ -7308,7 +7308,7 @@
         <v>515</v>
       </c>
       <c r="B521" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C521" s="3"/>
     </row>
@@ -7344,7 +7344,7 @@
         <v>519</v>
       </c>
       <c r="B525" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525" s="3"/>
     </row>
@@ -7353,7 +7353,7 @@
         <v>520</v>
       </c>
       <c r="B526" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C526" s="3"/>
     </row>
@@ -7389,7 +7389,7 @@
         <v>524</v>
       </c>
       <c r="B530" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C530" s="3"/>
     </row>
@@ -7398,7 +7398,7 @@
         <v>525</v>
       </c>
       <c r="B531" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C531" s="3"/>
     </row>
@@ -7407,7 +7407,7 @@
         <v>526</v>
       </c>
       <c r="B532" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C532" s="3"/>
     </row>
@@ -7425,7 +7425,7 @@
         <v>528</v>
       </c>
       <c r="B534" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C534" s="3"/>
     </row>
@@ -7443,7 +7443,7 @@
         <v>320</v>
       </c>
       <c r="B536" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C536" s="3"/>
     </row>
@@ -7452,7 +7452,7 @@
         <v>530</v>
       </c>
       <c r="B537" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C537" s="3"/>
     </row>
@@ -7551,7 +7551,7 @@
         <v>541</v>
       </c>
       <c r="B548" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C548" s="3"/>
     </row>
@@ -7560,7 +7560,7 @@
         <v>542</v>
       </c>
       <c r="B549" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C549" s="3"/>
     </row>
@@ -7578,7 +7578,7 @@
         <v>544</v>
       </c>
       <c r="B551" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C551" s="3"/>
     </row>
@@ -7596,7 +7596,7 @@
         <v>546</v>
       </c>
       <c r="B553" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C553" s="3"/>
     </row>

--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -1132,7 +1132,7 @@
     <t>Muita enrolação pra um enredo fraquíssimo. Além de muitos jargões e palavras repetidas. Não recomendo.</t>
   </si>
   <si>
-    <t>Esperei mais desse livro não a hora de ver o final dessa história que me fascinou a autora conseguiu desrtruir o seu próprio trabalho que decepção .</t>
+    <t>Esperei mais desse livro não a hora de ver o final dessa história que me fascinou a autora conseguiu destruir o seu próprio trabalho que decepção .</t>
   </si>
   <si>
     <t>Jorge Candeiras é o tradutor da versão portuguesa do livro e não da versão brasileira, mas a Amazon vender no Brasil um texto com português de Portugal e não avisar é desrespeito.</t>
@@ -4437,7 +4437,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" s="3"/>
     </row>
@@ -4455,7 +4455,7 @@
         <v>205</v>
       </c>
       <c r="B204" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C204" s="3"/>
     </row>
@@ -4518,7 +4518,7 @@
         <v>212</v>
       </c>
       <c r="B211" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C211" s="3"/>
     </row>
@@ -4545,7 +4545,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" s="3"/>
     </row>
@@ -4608,7 +4608,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" s="3"/>
     </row>
@@ -4662,7 +4662,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" s="3"/>
     </row>
@@ -4671,7 +4671,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C228" s="3"/>
     </row>
@@ -4716,7 +4716,7 @@
         <v>234</v>
       </c>
       <c r="B233" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C233" s="3"/>
     </row>
@@ -4725,7 +4725,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" s="3"/>
     </row>
@@ -4806,7 +4806,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" s="3"/>
     </row>
@@ -4815,7 +4815,7 @@
         <v>245</v>
       </c>
       <c r="B244" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C244" s="3"/>
     </row>
@@ -4824,7 +4824,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" s="3"/>
     </row>
@@ -4833,7 +4833,7 @@
         <v>247</v>
       </c>
       <c r="B246" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" s="3"/>
     </row>
@@ -4842,7 +4842,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" s="3"/>
     </row>
@@ -4851,7 +4851,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C248" s="3"/>
     </row>
@@ -5958,7 +5958,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C371" s="3"/>
     </row>
@@ -5967,7 +5967,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C372" s="3"/>
     </row>
@@ -5985,7 +5985,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" s="3"/>
     </row>
@@ -6786,7 +6786,7 @@
         <v>459</v>
       </c>
       <c r="B463" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C463" s="3"/>
     </row>

--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -19,7 +19,7 @@
     <t>Mensagem</t>
   </si>
   <si>
-    <t>target treino</t>
+    <t>target:</t>
   </si>
   <si>
     <t>Legenda</t>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="C167" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
       <c r="A168" s="3" t="s">
         <v>171</v>
       </c>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C168" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
       <c r="A169" s="3" t="s">
         <v>172</v>
       </c>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="C169" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
       <c r="A170" s="3" t="s">
         <v>173</v>
       </c>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="C170" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
       <c r="A171" s="3" t="s">
         <v>174</v>
       </c>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="C171" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
       <c r="A172" s="3" t="s">
         <v>175</v>
       </c>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="C172" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
       <c r="A173" s="3" t="s">
         <v>176</v>
       </c>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="C173" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
       <c r="A174" s="3" t="s">
         <v>177</v>
       </c>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="C174" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
       <c r="A175" s="3" t="s">
         <v>87</v>
       </c>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="C175" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
       <c r="A176" s="3" t="s">
         <v>178</v>
       </c>

--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -2617,7 +2617,7 @@
     <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>

--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -19,7 +19,7 @@
     <t>Mensagem</t>
   </si>
   <si>
-    <t>target:</t>
+    <t>target</t>
   </si>
   <si>
     <t>Legenda</t>
